--- a/Companies_transpose_edited_2_final.xlsx
+++ b/Companies_transpose_edited_2_final.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01D048-F961-4DEB-8402-4EE38AD505C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E98DDE-B781-4CC8-B3F8-D5D67F11C7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AO$1:$AT$643</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="312">
   <si>
     <t>Company</t>
   </si>
@@ -883,6 +886,93 @@
   <si>
     <t>Market Cap to EBITDA</t>
   </si>
+  <si>
+    <t>West Technology Group, LLC</t>
+  </si>
+  <si>
+    <t>WST US</t>
+  </si>
+  <si>
+    <t>EagleView Technology Corporation</t>
+  </si>
+  <si>
+    <t>LEI US</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>Advanced Integration Technology LP</t>
+  </si>
+  <si>
+    <t>5578 JP</t>
+  </si>
+  <si>
+    <t>5579 JP</t>
+  </si>
+  <si>
+    <t>5580 JP</t>
+  </si>
+  <si>
+    <t>5581 JP</t>
+  </si>
+  <si>
+    <t>5582 JP</t>
+  </si>
+  <si>
+    <t>5583 JP</t>
+  </si>
+  <si>
+    <t>SYN prop e tech S.A.</t>
+  </si>
+  <si>
+    <t>SYNE3 BZ</t>
+  </si>
+  <si>
+    <t>Telecom Argentina S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEO US </t>
+  </si>
+  <si>
+    <t>Maxcom Telecomunicaciones, S.A.B. de C.V.</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAXCOMA MM </t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Oi S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIBR3 BZ </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Consensus Cloud Solutions, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCSI US </t>
+  </si>
+  <si>
+    <t>Cloud Crane Escrow, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR US </t>
+  </si>
+  <si>
+    <t>Cloudera, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLDR UN </t>
+  </si>
 </sst>
 </file>
 
@@ -953,7 +1043,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1258,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU583"/>
+  <dimension ref="A1:AU643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO31" sqref="AO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84736,7 +84826,8198 @@
         <v>-35.241157534937294</v>
       </c>
     </row>
+    <row r="584" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>283</v>
+      </c>
+      <c r="B584" t="s">
+        <v>46</v>
+      </c>
+      <c r="C584" t="s">
+        <v>284</v>
+      </c>
+      <c r="D584">
+        <v>2018</v>
+      </c>
+      <c r="E584">
+        <v>1717.4</v>
+      </c>
+      <c r="F584">
+        <v>206.9</v>
+      </c>
+      <c r="G584">
+        <v>1978.9</v>
+      </c>
+      <c r="H584">
+        <v>7262.0300999999999</v>
+      </c>
+      <c r="I584">
+        <v>94151952</v>
+      </c>
+      <c r="J584">
+        <v>344.7</v>
+      </c>
+      <c r="K584">
+        <v>-141.30000000000001</v>
+      </c>
+      <c r="L584">
+        <v>1396.3</v>
+      </c>
+      <c r="M584">
+        <v>13.2498</v>
+      </c>
+      <c r="N584">
+        <v>240.3</v>
+      </c>
+      <c r="O584">
+        <v>6.3</v>
+      </c>
+      <c r="P584">
+        <v>-104.7</v>
+      </c>
+      <c r="Q584">
+        <v>582.6</v>
+      </c>
+      <c r="R584">
+        <v>196.1</v>
+      </c>
+      <c r="S584">
+        <v>2.2050999999999998</v>
+      </c>
+      <c r="T584">
+        <v>337.4</v>
+      </c>
+      <c r="U584">
+        <v>0</v>
+      </c>
+      <c r="V584">
+        <v>0.86785587952903132</v>
+      </c>
+      <c r="W584">
+        <v>0.12047280773261908</v>
+      </c>
+      <c r="X584">
+        <v>0.14044259829549524</v>
+      </c>
+      <c r="Y584">
+        <v>3.2964238485037765</v>
+      </c>
+      <c r="Z584">
+        <v>7.4485667982383843</v>
+      </c>
+      <c r="AA584">
+        <v>0.14817732578958678</v>
+      </c>
+      <c r="AB584">
+        <v>54.761904761904766</v>
+      </c>
+      <c r="AC584">
+        <v>0.10455303451412401</v>
+      </c>
+      <c r="AD584">
+        <v>0.56890049318247748</v>
+      </c>
+      <c r="AE584">
+        <v>9.909545707211076E-2</v>
+      </c>
+      <c r="AF584">
+        <v>0.12314745038934942</v>
+      </c>
+      <c r="AG584">
+        <v>0.14044259829549524</v>
+      </c>
+      <c r="AH584">
+        <v>0.12314745038934942</v>
+      </c>
+      <c r="AI584">
+        <v>1.7205507394186639</v>
+      </c>
+      <c r="AJ584">
+        <v>4.2285024455572371</v>
+      </c>
+      <c r="AK584">
+        <v>5.2009096182768744</v>
+      </c>
+      <c r="AL584">
+        <v>62794</v>
+      </c>
+      <c r="AM584">
+        <v>2.4</v>
+      </c>
+      <c r="AN584">
+        <v>2.9</v>
+      </c>
+      <c r="AO584">
+        <v>0</v>
+      </c>
+      <c r="AP584">
+        <v>0</v>
+      </c>
+      <c r="AQ584">
+        <v>20</v>
+      </c>
+      <c r="AR584">
+        <v>25</v>
+      </c>
+      <c r="AS584" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT584">
+        <v>1</v>
+      </c>
+      <c r="AU584">
+        <v>21.067682332463011</v>
+      </c>
+    </row>
+    <row r="585" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>283</v>
+      </c>
+      <c r="B585" t="s">
+        <v>46</v>
+      </c>
+      <c r="C585" t="s">
+        <v>284</v>
+      </c>
+      <c r="D585">
+        <v>2019</v>
+      </c>
+      <c r="E585">
+        <v>1839.9</v>
+      </c>
+      <c r="F585">
+        <v>241.7</v>
+      </c>
+      <c r="G585">
+        <v>2341.4</v>
+      </c>
+      <c r="H585">
+        <v>11123.0182</v>
+      </c>
+      <c r="I585">
+        <v>95161684</v>
+      </c>
+      <c r="J585">
+        <v>412.9</v>
+      </c>
+      <c r="K585">
+        <v>-109.8</v>
+      </c>
+      <c r="L585">
+        <v>1573.2</v>
+      </c>
+      <c r="M585">
+        <v>14.181800000000001</v>
+      </c>
+      <c r="N585">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="O585">
+        <v>4.7</v>
+      </c>
+      <c r="P585">
+        <v>-126.4</v>
+      </c>
+      <c r="Q585">
+        <v>768.2</v>
+      </c>
+      <c r="R585">
+        <v>329.3</v>
+      </c>
+      <c r="S585">
+        <v>2.2201</v>
+      </c>
+      <c r="T585">
+        <v>439.1</v>
+      </c>
+      <c r="U585">
+        <v>0</v>
+      </c>
+      <c r="V585">
+        <v>0.78581190740582563</v>
+      </c>
+      <c r="W585">
+        <v>0.13136583509973368</v>
+      </c>
+      <c r="X585">
+        <v>0.20931858632087466</v>
+      </c>
+      <c r="Y585">
+        <v>3.3694756140183326</v>
+      </c>
+      <c r="Z585">
+        <v>7.5174665013000475</v>
+      </c>
+      <c r="AA585">
+        <v>0.15363590134757182</v>
+      </c>
+      <c r="AB585">
+        <v>90</v>
+      </c>
+      <c r="AC585">
+        <v>0.10322883744768087</v>
+      </c>
+      <c r="AD585">
+        <v>0.79752966820053284</v>
+      </c>
+      <c r="AE585">
+        <v>0.14064235073033227</v>
+      </c>
+      <c r="AF585">
+        <v>0.1730880420499343</v>
+      </c>
+      <c r="AG585">
+        <v>0.20931858632087466</v>
+      </c>
+      <c r="AH585">
+        <v>0.1730880420499343</v>
+      </c>
+      <c r="AI585">
+        <v>1.3334345581536593</v>
+      </c>
+      <c r="AJ585">
+        <v>6.0454471438665145</v>
+      </c>
+      <c r="AK585">
+        <v>7.0703141367912536</v>
+      </c>
+      <c r="AL585">
+        <v>63414</v>
+      </c>
+      <c r="AM585">
+        <v>1.8</v>
+      </c>
+      <c r="AN585">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO585">
+        <v>0</v>
+      </c>
+      <c r="AP585">
+        <v>0</v>
+      </c>
+      <c r="AQ585">
+        <v>21</v>
+      </c>
+      <c r="AR585">
+        <v>24</v>
+      </c>
+      <c r="AS585" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT585">
+        <v>1</v>
+      </c>
+      <c r="AU585">
+        <v>26.938770162266895</v>
+      </c>
+    </row>
+    <row r="586" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>283</v>
+      </c>
+      <c r="B586" t="s">
+        <v>46</v>
+      </c>
+      <c r="C586" t="s">
+        <v>284</v>
+      </c>
+      <c r="D586">
+        <v>2020</v>
+      </c>
+      <c r="E586">
+        <v>2146.9</v>
+      </c>
+      <c r="F586">
+        <v>346.2</v>
+      </c>
+      <c r="G586">
+        <v>2793.8</v>
+      </c>
+      <c r="H586">
+        <v>20944.311600000001</v>
+      </c>
+      <c r="I586">
+        <v>145571470</v>
+      </c>
+      <c r="J586">
+        <v>528.79999999999995</v>
+      </c>
+      <c r="K586">
+        <v>-289.8</v>
+      </c>
+      <c r="L586">
+        <v>1854.5</v>
+      </c>
+      <c r="M586">
+        <v>17.117599999999999</v>
+      </c>
+      <c r="N586">
+        <v>406.9</v>
+      </c>
+      <c r="O586">
+        <v>6.8</v>
+      </c>
+      <c r="P586">
+        <v>-174.4</v>
+      </c>
+      <c r="Q586">
+        <v>939.3</v>
+      </c>
+      <c r="R586">
+        <v>325.7</v>
+      </c>
+      <c r="S586">
+        <v>1.9881</v>
+      </c>
+      <c r="T586">
+        <v>615.5</v>
+      </c>
+      <c r="U586">
+        <v>0</v>
+      </c>
+      <c r="V586">
+        <v>0.76845157133653086</v>
+      </c>
+      <c r="W586">
+        <v>0.16125576412501746</v>
+      </c>
+      <c r="X586">
+        <v>0.17562685359935293</v>
+      </c>
+      <c r="Y586">
+        <v>3.4461953130146363</v>
+      </c>
+      <c r="Z586">
+        <v>7.6717802201755196</v>
+      </c>
+      <c r="AA586">
+        <v>0.18668104610407119</v>
+      </c>
+      <c r="AB586">
+        <v>85.485294117647058</v>
+      </c>
+      <c r="AC586">
+        <v>0.12391724532894265</v>
+      </c>
+      <c r="AD586">
+        <v>0.6159228441754917</v>
+      </c>
+      <c r="AE586">
+        <v>0.11657956904574414</v>
+      </c>
+      <c r="AF586">
+        <v>0.14938996422346573</v>
+      </c>
+      <c r="AG586">
+        <v>0.17562685359935293</v>
+      </c>
+      <c r="AH586">
+        <v>0.14938996422346573</v>
+      </c>
+      <c r="AI586">
+        <v>1.8897758673626037</v>
+      </c>
+      <c r="AJ586">
+        <v>9.7556065023988072</v>
+      </c>
+      <c r="AK586">
+        <v>11.293778161229442</v>
+      </c>
+      <c r="AL586">
+        <v>63228</v>
+      </c>
+      <c r="AM586">
+        <v>1.2</v>
+      </c>
+      <c r="AN586">
+        <v>-3.5</v>
+      </c>
+      <c r="AO586">
+        <v>0</v>
+      </c>
+      <c r="AP586">
+        <v>0</v>
+      </c>
+      <c r="AQ586">
+        <v>22</v>
+      </c>
+      <c r="AR586">
+        <v>23</v>
+      </c>
+      <c r="AS586" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT586">
+        <v>1</v>
+      </c>
+      <c r="AU586">
+        <v>39.607245839636917</v>
+      </c>
+    </row>
+    <row r="587" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>283</v>
+      </c>
+      <c r="B587" t="s">
+        <v>46</v>
+      </c>
+      <c r="C587" t="s">
+        <v>284</v>
+      </c>
+      <c r="D587">
+        <v>2021</v>
+      </c>
+      <c r="E587">
+        <v>2831.6</v>
+      </c>
+      <c r="F587">
+        <v>661.8</v>
+      </c>
+      <c r="G587">
+        <v>3313.8</v>
+      </c>
+      <c r="H587">
+        <v>34744.127099999998</v>
+      </c>
+      <c r="I587">
+        <v>99163147</v>
+      </c>
+      <c r="J587">
+        <v>887.3</v>
+      </c>
+      <c r="K587">
+        <v>-437.3</v>
+      </c>
+      <c r="L587">
+        <v>2335.4</v>
+      </c>
+      <c r="M587">
+        <v>27.3538</v>
+      </c>
+      <c r="N587">
+        <v>752.3</v>
+      </c>
+      <c r="O587">
+        <v>7.2</v>
+      </c>
+      <c r="P587">
+        <v>-253.4</v>
+      </c>
+      <c r="Q587">
+        <v>978.4</v>
+      </c>
+      <c r="R587">
+        <v>325.3</v>
+      </c>
+      <c r="S587">
+        <v>2.1067</v>
+      </c>
+      <c r="T587">
+        <v>762.6</v>
+      </c>
+      <c r="U587">
+        <v>0</v>
+      </c>
+      <c r="V587">
+        <v>0.85448729555193426</v>
+      </c>
+      <c r="W587">
+        <v>0.23371945189998586</v>
+      </c>
+      <c r="X587">
+        <v>0.13929091376209643</v>
+      </c>
+      <c r="Y587">
+        <v>3.520326293607321</v>
+      </c>
+      <c r="Z587">
+        <v>7.9485972019000339</v>
+      </c>
+      <c r="AA587">
+        <v>0.28337757985784018</v>
+      </c>
+      <c r="AB587">
+        <v>139.68055555555554</v>
+      </c>
+      <c r="AC587">
+        <v>0.1997103023718993</v>
+      </c>
+      <c r="AD587">
+        <v>0.36661782936999893</v>
+      </c>
+      <c r="AE587">
+        <v>9.8165248355362417E-2</v>
+      </c>
+      <c r="AF587">
+        <v>0.1222610591197805</v>
+      </c>
+      <c r="AG587">
+        <v>0.13929091376209643</v>
+      </c>
+      <c r="AH587">
+        <v>0.1222610591197805</v>
+      </c>
+      <c r="AI587">
+        <v>2.3442975714724867</v>
+      </c>
+      <c r="AJ587">
+        <v>12.270139532419833</v>
+      </c>
+      <c r="AK587">
+        <v>14.877163269675428</v>
+      </c>
+      <c r="AL587">
+        <v>69287</v>
+      </c>
+      <c r="AM587">
+        <v>4.7</v>
+      </c>
+      <c r="AN587">
+        <v>5.9</v>
+      </c>
+      <c r="AO587">
+        <v>0</v>
+      </c>
+      <c r="AP587">
+        <v>0</v>
+      </c>
+      <c r="AQ587">
+        <v>23</v>
+      </c>
+      <c r="AR587">
+        <v>22</v>
+      </c>
+      <c r="AS587" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT587">
+        <v>1</v>
+      </c>
+      <c r="AU587">
+        <v>39.157136368759154</v>
+      </c>
+    </row>
+    <row r="588" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>283</v>
+      </c>
+      <c r="B588" t="s">
+        <v>46</v>
+      </c>
+      <c r="C588" t="s">
+        <v>284</v>
+      </c>
+      <c r="D588">
+        <v>2022</v>
+      </c>
+      <c r="E588">
+        <v>2886.9</v>
+      </c>
+      <c r="F588">
+        <v>585.9</v>
+      </c>
+      <c r="G588">
+        <v>3616.8</v>
+      </c>
+      <c r="H588">
+        <v>17423.663499999999</v>
+      </c>
+      <c r="I588">
+        <v>127897331</v>
+      </c>
+      <c r="J588">
+        <v>870.1</v>
+      </c>
+      <c r="K588">
+        <v>-576.4</v>
+      </c>
+      <c r="L588">
+        <v>2684.9</v>
+      </c>
+      <c r="M588">
+        <v>24.3216</v>
+      </c>
+      <c r="N588">
+        <v>734</v>
+      </c>
+      <c r="O588">
+        <v>2.8</v>
+      </c>
+      <c r="P588">
+        <v>-284.60000000000002</v>
+      </c>
+      <c r="Q588">
+        <v>931.9</v>
+      </c>
+      <c r="R588">
+        <v>317.89999999999998</v>
+      </c>
+      <c r="S588">
+        <v>2.7008000000000001</v>
+      </c>
+      <c r="T588">
+        <v>894.3</v>
+      </c>
+      <c r="U588">
+        <v>0</v>
+      </c>
+      <c r="V588">
+        <v>0.79819177173191769</v>
+      </c>
+      <c r="W588">
+        <v>0.20295126260002078</v>
+      </c>
+      <c r="X588">
+        <v>0.1184029200342657</v>
+      </c>
+      <c r="Y588">
+        <v>3.558324494026238</v>
+      </c>
+      <c r="Z588">
+        <v>7.9679385410304651</v>
+      </c>
+      <c r="AA588">
+        <v>0.21822041789265892</v>
+      </c>
+      <c r="AB588">
+        <v>363.78571428571433</v>
+      </c>
+      <c r="AC588">
+        <v>0.16199402786994027</v>
+      </c>
+      <c r="AD588">
+        <v>0.3653603034134007</v>
+      </c>
+      <c r="AE588">
+        <v>8.7895377128953761E-2</v>
+      </c>
+      <c r="AF588">
+        <v>0.10586785666711068</v>
+      </c>
+      <c r="AG588">
+        <v>0.1184029200342657</v>
+      </c>
+      <c r="AH588">
+        <v>0.10586785666711068</v>
+      </c>
+      <c r="AI588">
+        <v>2.8131487889273359</v>
+      </c>
+      <c r="AJ588">
+        <v>6.0354232914198613</v>
+      </c>
+      <c r="AK588">
+        <v>6.4895018436440832</v>
+      </c>
+      <c r="AL588">
+        <v>76399</v>
+      </c>
+      <c r="AM588">
+        <v>8</v>
+      </c>
+      <c r="AN588">
+        <v>2.1</v>
+      </c>
+      <c r="AO588">
+        <v>0</v>
+      </c>
+      <c r="AP588">
+        <v>0</v>
+      </c>
+      <c r="AQ588">
+        <v>24</v>
+      </c>
+      <c r="AR588">
+        <v>21</v>
+      </c>
+      <c r="AS588" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT588">
+        <v>1</v>
+      </c>
+      <c r="AU588">
+        <v>20.024897712906562</v>
+      </c>
+    </row>
+    <row r="589" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>283</v>
+      </c>
+      <c r="B589" t="s">
+        <v>46</v>
+      </c>
+      <c r="C589" t="s">
+        <v>284</v>
+      </c>
+      <c r="D589">
+        <v>2023</v>
+      </c>
+      <c r="E589">
+        <v>2949.8</v>
+      </c>
+      <c r="F589">
+        <v>593.4</v>
+      </c>
+      <c r="G589">
+        <v>3829.5</v>
+      </c>
+      <c r="H589">
+        <v>26053.242600000001</v>
+      </c>
+      <c r="I589">
+        <v>109705714</v>
+      </c>
+      <c r="J589">
+        <v>833.6</v>
+      </c>
+      <c r="K589">
+        <v>-544.9</v>
+      </c>
+      <c r="L589">
+        <v>2881</v>
+      </c>
+      <c r="M589">
+        <v>18.715399999999999</v>
+      </c>
+      <c r="N589">
+        <v>676</v>
+      </c>
+      <c r="O589">
+        <v>-19</v>
+      </c>
+      <c r="P589">
+        <v>-362</v>
+      </c>
+      <c r="Q589">
+        <v>948.5</v>
+      </c>
+      <c r="R589">
+        <v>309</v>
+      </c>
+      <c r="S589">
+        <v>2.0331999999999999</v>
+      </c>
+      <c r="T589">
+        <v>853.9</v>
+      </c>
+      <c r="U589">
+        <v>0</v>
+      </c>
+      <c r="V589">
+        <v>0.77028332680506595</v>
+      </c>
+      <c r="W589">
+        <v>0.20116618075801748</v>
+      </c>
+      <c r="X589">
+        <v>0.10725442554668518</v>
+      </c>
+      <c r="Y589">
+        <v>3.5831420738599316</v>
+      </c>
+      <c r="Z589">
+        <v>7.9894926504254018</v>
+      </c>
+      <c r="AA589">
+        <v>0.20597014925373133</v>
+      </c>
+      <c r="AB589">
+        <v>-54.631578947368418</v>
+      </c>
+      <c r="AC589">
+        <v>0.15495495495495495</v>
+      </c>
+      <c r="AD589">
+        <v>0.3706813819577735</v>
+      </c>
+      <c r="AE589">
+        <v>8.0689385037211125E-2</v>
+      </c>
+      <c r="AF589">
+        <v>9.6865203761755489E-2</v>
+      </c>
+      <c r="AG589">
+        <v>0.10725442554668518</v>
+      </c>
+      <c r="AH589">
+        <v>9.6865203761755489E-2</v>
+      </c>
+      <c r="AI589">
+        <v>2.7634304207119742</v>
+      </c>
+      <c r="AJ589">
+        <v>8.8322064546748926</v>
+      </c>
+      <c r="AK589">
+        <v>9.0431248177716075</v>
+      </c>
+      <c r="AL589">
+        <v>80851</v>
+      </c>
+      <c r="AM589">
+        <v>3.7</v>
+      </c>
+      <c r="AN589">
+        <v>2.6</v>
+      </c>
+      <c r="AO589">
+        <v>0</v>
+      </c>
+      <c r="AP589">
+        <v>0</v>
+      </c>
+      <c r="AQ589">
+        <v>25</v>
+      </c>
+      <c r="AR589">
+        <v>20</v>
+      </c>
+      <c r="AS589" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT589">
+        <v>1</v>
+      </c>
+      <c r="AU589">
+        <v>31.253889875239924</v>
+      </c>
+    </row>
+    <row r="590" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>285</v>
+      </c>
+      <c r="B590" t="s">
+        <v>46</v>
+      </c>
+      <c r="C590" t="s">
+        <v>286</v>
+      </c>
+      <c r="D590">
+        <v>2018</v>
+      </c>
+      <c r="E590">
+        <v>6.8597999999999999</v>
+      </c>
+      <c r="F590">
+        <v>-24.771599999999999</v>
+      </c>
+      <c r="G590">
+        <v>14.267899999999999</v>
+      </c>
+      <c r="H590">
+        <v>4234.679260420844</v>
+      </c>
+      <c r="I590">
+        <v>105750000</v>
+      </c>
+      <c r="J590">
+        <v>-17.186199999999999</v>
+      </c>
+      <c r="K590">
+        <v>35.178699999999999</v>
+      </c>
+      <c r="L590">
+        <v>-26.9633</v>
+      </c>
+      <c r="M590">
+        <v>-92.224199999999996</v>
+      </c>
+      <c r="N590">
+        <v>-18.666699999999999</v>
+      </c>
+      <c r="O590">
+        <v>6.0187999999999997</v>
+      </c>
+      <c r="P590">
+        <v>-2.0476000000000001</v>
+      </c>
+      <c r="Q590">
+        <v>41.231099999999998</v>
+      </c>
+      <c r="R590">
+        <v>35.939</v>
+      </c>
+      <c r="S590">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="T590">
+        <v>0.76029999999999998</v>
+      </c>
+      <c r="U590">
+        <v>0</v>
+      </c>
+      <c r="V590">
+        <v>0.48078553956784115</v>
+      </c>
+      <c r="W590">
+        <v>-3.6111256887955916</v>
+      </c>
+      <c r="X590">
+        <v>-1.3328858114548294</v>
+      </c>
+      <c r="Y590">
+        <v>1.1543600568199202</v>
+      </c>
+      <c r="Z590">
+        <v>1.9256782867938422</v>
+      </c>
+      <c r="AA590">
+        <v>0.91871543913393383</v>
+      </c>
+      <c r="AB590">
+        <v>-2.7611982454974413</v>
+      </c>
+      <c r="AC590">
+        <v>-1.7361770127348806</v>
+      </c>
+      <c r="AD590">
+        <v>-2.0911545309608872</v>
+      </c>
+      <c r="AE590">
+        <v>2.5188710321771248</v>
+      </c>
+      <c r="AF590">
+        <v>4.0040331116236061</v>
+      </c>
+      <c r="AG590">
+        <v>-1.3328858114548294</v>
+      </c>
+      <c r="AH590">
+        <v>4.0040331116236061</v>
+      </c>
+      <c r="AI590">
+        <v>2.1155290909596815E-2</v>
+      </c>
+      <c r="AJ590">
+        <v>617.31818134943353</v>
+      </c>
+      <c r="AK590">
+        <v>-157.05344896288079</v>
+      </c>
+      <c r="AL590">
+        <v>62794</v>
+      </c>
+      <c r="AM590">
+        <v>2.4</v>
+      </c>
+      <c r="AN590">
+        <v>2.9</v>
+      </c>
+      <c r="AO590">
+        <v>0</v>
+      </c>
+      <c r="AP590">
+        <v>1</v>
+      </c>
+      <c r="AQ590">
+        <v>16</v>
+      </c>
+      <c r="AR590">
+        <v>25</v>
+      </c>
+      <c r="AS590" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT590">
+        <v>1</v>
+      </c>
+      <c r="AU590">
+        <v>-246.39997558627527</v>
+      </c>
+    </row>
+    <row r="591" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>285</v>
+      </c>
+      <c r="B591" t="s">
+        <v>46</v>
+      </c>
+      <c r="C591" t="s">
+        <v>286</v>
+      </c>
+      <c r="D591">
+        <v>2019</v>
+      </c>
+      <c r="E591">
+        <v>2.7421000000000002</v>
+      </c>
+      <c r="F591">
+        <v>16.6432</v>
+      </c>
+      <c r="G591">
+        <v>8.5827000000000009</v>
+      </c>
+      <c r="H591">
+        <v>16652.984134978597</v>
+      </c>
+      <c r="I591">
+        <v>41625000</v>
+      </c>
+      <c r="J591">
+        <v>19.088899999999999</v>
+      </c>
+      <c r="K591">
+        <v>-7.7786999999999997</v>
+      </c>
+      <c r="L591">
+        <v>6.1750999999999996</v>
+      </c>
+      <c r="M591">
+        <v>227.20079999999999</v>
+      </c>
+      <c r="N591">
+        <v>18.610099999999999</v>
+      </c>
+      <c r="O591">
+        <v>2.4380999999999999</v>
+      </c>
+      <c r="P591">
+        <v>-2.0960000000000001</v>
+      </c>
+      <c r="Q591">
+        <v>2.4076</v>
+      </c>
+      <c r="R591">
+        <v>0</v>
+      </c>
+      <c r="S591">
+        <v>3.7587999999999999</v>
+      </c>
+      <c r="T591">
+        <v>7.7786999999999997</v>
+      </c>
+      <c r="U591">
+        <v>0</v>
+      </c>
+      <c r="V591">
+        <v>0.3194915352977501</v>
+      </c>
+      <c r="W591">
+        <v>6.0695087706502315</v>
+      </c>
+      <c r="X591">
+        <v>0</v>
+      </c>
+      <c r="Y591">
+        <v>0.93362393244551278</v>
+      </c>
+      <c r="Z591">
+        <v>1.0087240502052424</v>
+      </c>
+      <c r="AA591">
+        <v>2.6952114135803469</v>
+      </c>
+      <c r="AB591">
+        <v>8.492719740781757</v>
+      </c>
+      <c r="AC591">
+        <v>1.9391566756382022</v>
+      </c>
+      <c r="AD591">
+        <v>0</v>
+      </c>
+      <c r="AE591">
+        <v>0</v>
+      </c>
+      <c r="AF591">
+        <v>0</v>
+      </c>
+      <c r="AG591">
+        <v>0</v>
+      </c>
+      <c r="AH591">
+        <v>0</v>
+      </c>
+      <c r="AJ591">
+        <v>6073.0768881436106</v>
+      </c>
+      <c r="AK591">
+        <v>2696.7958632214213</v>
+      </c>
+      <c r="AL591">
+        <v>63414</v>
+      </c>
+      <c r="AM591">
+        <v>1.8</v>
+      </c>
+      <c r="AN591">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO591">
+        <v>0</v>
+      </c>
+      <c r="AP591">
+        <v>1</v>
+      </c>
+      <c r="AQ591">
+        <v>17</v>
+      </c>
+      <c r="AR591">
+        <v>24</v>
+      </c>
+      <c r="AS591" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT591">
+        <v>1</v>
+      </c>
+      <c r="AU591">
+        <v>872.39097773986964</v>
+      </c>
+    </row>
+    <row r="592" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>285</v>
+      </c>
+      <c r="B592" t="s">
+        <v>46</v>
+      </c>
+      <c r="C592" t="s">
+        <v>286</v>
+      </c>
+      <c r="D592">
+        <v>2020</v>
+      </c>
+      <c r="E592">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="F592">
+        <v>-3.8563000000000001</v>
+      </c>
+      <c r="G592">
+        <v>9.6951999999999998</v>
+      </c>
+      <c r="H592">
+        <v>28.818544366899253</v>
+      </c>
+      <c r="I592">
+        <v>7200000</v>
+      </c>
+      <c r="J592">
+        <v>-5.0068000000000001</v>
+      </c>
+      <c r="K592">
+        <v>-0.65659999999999996</v>
+      </c>
+      <c r="L592">
+        <v>7.6247999999999996</v>
+      </c>
+      <c r="M592">
+        <v>-68.252099999999999</v>
+      </c>
+      <c r="N592">
+        <v>-5.0273000000000003</v>
+      </c>
+      <c r="O592">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="P592">
+        <v>0</v>
+      </c>
+      <c r="Q592">
+        <v>2.0703999999999998</v>
+      </c>
+      <c r="R592">
+        <v>0</v>
+      </c>
+      <c r="S592">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="T592">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="U592">
+        <v>0</v>
+      </c>
+      <c r="V592">
+        <v>4.0958412410264877E-2</v>
+      </c>
+      <c r="W592">
+        <v>-9.7111558801309492</v>
+      </c>
+      <c r="X592">
+        <v>0</v>
+      </c>
+      <c r="Y592">
+        <v>0.98655677246583084</v>
+      </c>
+      <c r="Z592">
+        <v>-0.9235671408449313</v>
+      </c>
+      <c r="AA592">
+        <v>-0.50575752806631002</v>
+      </c>
+      <c r="AB592">
+        <v>-339.68243243243245</v>
+      </c>
+      <c r="AC592">
+        <v>-0.39775352751877219</v>
+      </c>
+      <c r="AD592">
+        <v>0</v>
+      </c>
+      <c r="AE592">
+        <v>0</v>
+      </c>
+      <c r="AF592">
+        <v>0</v>
+      </c>
+      <c r="AG592">
+        <v>0</v>
+      </c>
+      <c r="AH592">
+        <v>0</v>
+      </c>
+      <c r="AI592">
+        <v>0</v>
+      </c>
+      <c r="AJ592">
+        <v>72.572511626540546</v>
+      </c>
+      <c r="AK592">
+        <v>3.7795803649799673</v>
+      </c>
+      <c r="AL592">
+        <v>63228</v>
+      </c>
+      <c r="AM592">
+        <v>1.2</v>
+      </c>
+      <c r="AN592">
+        <v>-3.5</v>
+      </c>
+      <c r="AO592">
+        <v>0</v>
+      </c>
+      <c r="AP592">
+        <v>1</v>
+      </c>
+      <c r="AQ592">
+        <v>18</v>
+      </c>
+      <c r="AR592">
+        <v>23</v>
+      </c>
+      <c r="AS592" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT592">
+        <v>1</v>
+      </c>
+      <c r="AU592">
+        <v>-5.7558808753893214</v>
+      </c>
+    </row>
+    <row r="593" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>285</v>
+      </c>
+      <c r="B593" t="s">
+        <v>46</v>
+      </c>
+      <c r="C593" t="s">
+        <v>286</v>
+      </c>
+      <c r="D593">
+        <v>2021</v>
+      </c>
+      <c r="E593">
+        <v>0.4012</v>
+      </c>
+      <c r="F593">
+        <v>-169.67519999999999</v>
+      </c>
+      <c r="G593">
+        <v>46.4041</v>
+      </c>
+      <c r="H593">
+        <v>925.83626318432971</v>
+      </c>
+      <c r="I593">
+        <v>23145000</v>
+      </c>
+      <c r="J593">
+        <v>-5.4211</v>
+      </c>
+      <c r="K593">
+        <v>15.6456</v>
+      </c>
+      <c r="L593">
+        <v>-71.813599999999994</v>
+      </c>
+      <c r="M593">
+        <v>22.241499999999998</v>
+      </c>
+      <c r="N593">
+        <v>-5.4333999999999998</v>
+      </c>
+      <c r="O593">
+        <v>1.9793000000000001</v>
+      </c>
+      <c r="P593">
+        <v>0</v>
+      </c>
+      <c r="Q593">
+        <v>118.2176</v>
+      </c>
+      <c r="R593">
+        <v>21.5</v>
+      </c>
+      <c r="S593">
+        <v>6.08E-2</v>
+      </c>
+      <c r="T593">
+        <v>5.8544</v>
+      </c>
+      <c r="U593">
+        <v>0</v>
+      </c>
+      <c r="V593">
+        <v>8.6457877644432277E-3</v>
+      </c>
+      <c r="W593">
+        <v>-422.91924227318043</v>
+      </c>
+      <c r="X593">
+        <v>-0.29938618868849359</v>
+      </c>
+      <c r="Y593">
+        <v>1.6665563540184878</v>
+      </c>
+      <c r="Z593">
+        <v>-0.91329522289435661</v>
+      </c>
+      <c r="AA593">
+        <v>2.3627168113003667</v>
+      </c>
+      <c r="AB593">
+        <v>-2.7451119082503914</v>
+      </c>
+      <c r="AC593">
+        <v>-3.6564700101930647</v>
+      </c>
+      <c r="AD593">
+        <v>-3.9659847632399328</v>
+      </c>
+      <c r="AE593">
+        <v>0.46332112895196759</v>
+      </c>
+      <c r="AF593">
+        <v>-0.42731984990141836</v>
+      </c>
+      <c r="AG593">
+        <v>-0.29938618868849359</v>
+      </c>
+      <c r="AH593">
+        <v>-0.42731984990141836</v>
+      </c>
+      <c r="AI593">
+        <v>0.27229767441860464</v>
+      </c>
+      <c r="AJ593">
+        <v>2307.667654995837</v>
+      </c>
+      <c r="AK593">
+        <v>-12.892213496946676</v>
+      </c>
+      <c r="AL593">
+        <v>69287</v>
+      </c>
+      <c r="AM593">
+        <v>4.7</v>
+      </c>
+      <c r="AN593">
+        <v>5.9</v>
+      </c>
+      <c r="AO593">
+        <v>0</v>
+      </c>
+      <c r="AP593">
+        <v>1</v>
+      </c>
+      <c r="AQ593">
+        <v>19</v>
+      </c>
+      <c r="AR593">
+        <v>22</v>
+      </c>
+      <c r="AS593" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT593">
+        <v>1</v>
+      </c>
+      <c r="AU593">
+        <v>-170.78383781600223</v>
+      </c>
+    </row>
+    <row r="594" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>285</v>
+      </c>
+      <c r="B594" t="s">
+        <v>46</v>
+      </c>
+      <c r="C594" t="s">
+        <v>286</v>
+      </c>
+      <c r="D594">
+        <v>2022</v>
+      </c>
+      <c r="E594">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="F594">
+        <v>-107.742</v>
+      </c>
+      <c r="G594">
+        <v>34.6967</v>
+      </c>
+      <c r="H594">
+        <v>2767.4521047098206</v>
+      </c>
+      <c r="I594">
+        <v>69188000</v>
+      </c>
+      <c r="J594">
+        <v>-4.3685</v>
+      </c>
+      <c r="K594">
+        <v>32.761200000000002</v>
+      </c>
+      <c r="L594">
+        <v>-17.1236</v>
+      </c>
+      <c r="M594">
+        <v>22.241499999999998</v>
+      </c>
+      <c r="N594">
+        <v>-4.3826000000000001</v>
+      </c>
+      <c r="O594">
+        <v>4.7055999999999996</v>
+      </c>
+      <c r="P594">
+        <v>0</v>
+      </c>
+      <c r="Q594">
+        <v>51.820300000000003</v>
+      </c>
+      <c r="R594">
+        <v>33.927799999999998</v>
+      </c>
+      <c r="S594">
+        <v>6.54E-2</v>
+      </c>
+      <c r="T594">
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="U594">
+        <v>0</v>
+      </c>
+      <c r="V594">
+        <v>1.7214893635417779E-2</v>
+      </c>
+      <c r="W594">
+        <v>-180.38171772978401</v>
+      </c>
+      <c r="X594">
+        <v>-1.9813473802237846</v>
+      </c>
+      <c r="Y594">
+        <v>1.540288171046132</v>
+      </c>
+      <c r="Z594">
+        <v>-0.51533577924387663</v>
+      </c>
+      <c r="AA594">
+        <v>6.2920180335910674</v>
+      </c>
+      <c r="AB594">
+        <v>-0.9313583815028903</v>
+      </c>
+      <c r="AC594">
+        <v>-3.1052520844921854</v>
+      </c>
+      <c r="AD594">
+        <v>-7.7664644614856355</v>
+      </c>
+      <c r="AE594">
+        <v>0.97783939106600914</v>
+      </c>
+      <c r="AF594">
+        <v>2.0190071529736615</v>
+      </c>
+      <c r="AG594">
+        <v>-1.9813473802237846</v>
+      </c>
+      <c r="AH594">
+        <v>2.0190071529736615</v>
+      </c>
+      <c r="AI594">
+        <v>3.4384781801354646E-2</v>
+      </c>
+      <c r="AJ594">
+        <v>4633.2698890169431</v>
+      </c>
+      <c r="AK594">
+        <v>-161.6162550345617</v>
+      </c>
+      <c r="AL594">
+        <v>76399</v>
+      </c>
+      <c r="AM594">
+        <v>8</v>
+      </c>
+      <c r="AN594">
+        <v>2.1</v>
+      </c>
+      <c r="AO594">
+        <v>0</v>
+      </c>
+      <c r="AP594">
+        <v>1</v>
+      </c>
+      <c r="AQ594">
+        <v>20</v>
+      </c>
+      <c r="AR594">
+        <v>21</v>
+      </c>
+      <c r="AS594" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT594">
+        <v>1</v>
+      </c>
+      <c r="AU594">
+        <v>-633.50168357784605</v>
+      </c>
+    </row>
+    <row r="595" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>285</v>
+      </c>
+      <c r="B595" t="s">
+        <v>46</v>
+      </c>
+      <c r="C595" t="s">
+        <v>286</v>
+      </c>
+      <c r="D595">
+        <v>2023</v>
+      </c>
+      <c r="E595">
+        <v>32.054299999999998</v>
+      </c>
+      <c r="F595">
+        <v>-32.65</v>
+      </c>
+      <c r="G595">
+        <v>101.7119</v>
+      </c>
+      <c r="H595">
+        <v>2820</v>
+      </c>
+      <c r="I595">
+        <v>705000000</v>
+      </c>
+      <c r="J595">
+        <v>-5.9917999999999996</v>
+      </c>
+      <c r="K595">
+        <v>47.366599999999998</v>
+      </c>
+      <c r="L595">
+        <v>24.297699999999999</v>
+      </c>
+      <c r="M595">
+        <v>-27.882000000000001</v>
+      </c>
+      <c r="N595">
+        <v>-6.9943999999999997</v>
+      </c>
+      <c r="O595">
+        <v>1.4080999999999999</v>
+      </c>
+      <c r="P595">
+        <v>-0.24529999999999999</v>
+      </c>
+      <c r="Q595">
+        <v>77.414199999999994</v>
+      </c>
+      <c r="R595">
+        <v>48.272599999999997</v>
+      </c>
+      <c r="S595">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="T595">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="U595">
+        <v>0</v>
+      </c>
+      <c r="V595">
+        <v>0.31514798170125619</v>
+      </c>
+      <c r="W595">
+        <v>-1.0185840901220742</v>
+      </c>
+      <c r="X595">
+        <v>1.9867147919350392</v>
+      </c>
+      <c r="Y595">
+        <v>2.0073717671016649</v>
+      </c>
+      <c r="Z595">
+        <v>3.4674313397339258</v>
+      </c>
+      <c r="AA595">
+        <v>-1.3437485852570408</v>
+      </c>
+      <c r="AB595">
+        <v>-4.7930544705631704</v>
+      </c>
+      <c r="AC595">
+        <v>-0.32100472019498211</v>
+      </c>
+      <c r="AD595">
+        <v>-8.056443806535599</v>
+      </c>
+      <c r="AE595">
+        <v>0.47460130033948827</v>
+      </c>
+      <c r="AF595">
+        <v>0.66518396644357258</v>
+      </c>
+      <c r="AG595">
+        <v>1.9867147919350392</v>
+      </c>
+      <c r="AH595">
+        <v>0.66518396644357258</v>
+      </c>
+      <c r="AI595">
+        <v>1.8770482634040846E-2</v>
+      </c>
+      <c r="AJ595">
+        <v>87.975716206561998</v>
+      </c>
+      <c r="AK595">
+        <v>116.06036785374748</v>
+      </c>
+      <c r="AL595">
+        <v>80851</v>
+      </c>
+      <c r="AM595">
+        <v>3.7</v>
+      </c>
+      <c r="AN595">
+        <v>2.6</v>
+      </c>
+      <c r="AO595">
+        <v>0</v>
+      </c>
+      <c r="AP595">
+        <v>1</v>
+      </c>
+      <c r="AQ595">
+        <v>21</v>
+      </c>
+      <c r="AR595">
+        <v>20</v>
+      </c>
+      <c r="AS595" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT595">
+        <v>1</v>
+      </c>
+      <c r="AU595">
+        <v>-470.64321239026674</v>
+      </c>
+    </row>
+    <row r="596" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>288</v>
+      </c>
+      <c r="B596" t="s">
+        <v>46</v>
+      </c>
+      <c r="C596" t="s">
+        <v>289</v>
+      </c>
+      <c r="D596">
+        <v>2018</v>
+      </c>
+      <c r="E596">
+        <v>57.181399999999996</v>
+      </c>
+      <c r="F596">
+        <v>0</v>
+      </c>
+      <c r="G596">
+        <v>7.4069666666666665</v>
+      </c>
+      <c r="H596">
+        <v>6.8064999999999998</v>
+      </c>
+      <c r="I596">
+        <v>7200000</v>
+      </c>
+      <c r="J596">
+        <v>1.0154000000000001</v>
+      </c>
+      <c r="K596">
+        <v>11.43628</v>
+      </c>
+      <c r="L596">
+        <v>3.7034833333333332</v>
+      </c>
+      <c r="M596">
+        <v>-0.95279374999999999</v>
+      </c>
+      <c r="N596">
+        <v>1.3427666666666667</v>
+      </c>
+      <c r="O596">
+        <v>0.14813933333333335</v>
+      </c>
+      <c r="P596">
+        <v>-0.60229999999999995</v>
+      </c>
+      <c r="Q596">
+        <v>3.7034833333333332</v>
+      </c>
+      <c r="R596">
+        <v>2.9627866666666667</v>
+      </c>
+      <c r="S596">
+        <v>0.93094999999999994</v>
+      </c>
+      <c r="T596">
+        <v>0.74069666666666667</v>
+      </c>
+      <c r="U596">
+        <v>0</v>
+      </c>
+      <c r="V596">
+        <v>7.7199483369260467</v>
+      </c>
+      <c r="W596">
+        <v>0</v>
+      </c>
+      <c r="X596">
+        <v>0.8</v>
+      </c>
+      <c r="Y596">
+        <v>0.86964039021453465</v>
+      </c>
+      <c r="Z596">
+        <v>4.0462286706797803</v>
+      </c>
+      <c r="AA596">
+        <v>0</v>
+      </c>
+      <c r="AB596">
+        <v>13.129981233883415</v>
+      </c>
+      <c r="AC596">
+        <v>0</v>
+      </c>
+      <c r="AD596">
+        <v>2.9178517497209637</v>
+      </c>
+      <c r="AE596">
+        <v>0.4</v>
+      </c>
+      <c r="AF596">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AG596">
+        <v>0.8</v>
+      </c>
+      <c r="AH596">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AI596">
+        <v>0.25</v>
+      </c>
+      <c r="AJ596">
+        <v>0.11903346192992827</v>
+      </c>
+      <c r="AK596">
+        <v>1.8378643529289993</v>
+      </c>
+      <c r="AL596">
+        <v>62794</v>
+      </c>
+      <c r="AM596">
+        <v>2.4</v>
+      </c>
+      <c r="AN596">
+        <v>2.9</v>
+      </c>
+      <c r="AO596">
+        <v>0</v>
+      </c>
+      <c r="AP596">
+        <v>0</v>
+      </c>
+      <c r="AQ596">
+        <v>28</v>
+      </c>
+      <c r="AR596">
+        <v>25</v>
+      </c>
+      <c r="AS596" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT596">
+        <v>1</v>
+      </c>
+      <c r="AU596">
+        <v>6.7032696474295834</v>
+      </c>
+    </row>
+    <row r="597" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>288</v>
+      </c>
+      <c r="B597" t="s">
+        <v>46</v>
+      </c>
+      <c r="C597" t="s">
+        <v>290</v>
+      </c>
+      <c r="D597">
+        <v>2019</v>
+      </c>
+      <c r="E597">
+        <v>57.181399999999996</v>
+      </c>
+      <c r="F597">
+        <v>0</v>
+      </c>
+      <c r="G597">
+        <v>7.4069666666666665</v>
+      </c>
+      <c r="H597">
+        <v>6.8064999999999998</v>
+      </c>
+      <c r="I597">
+        <v>7200000</v>
+      </c>
+      <c r="J597">
+        <v>1.0154000000000001</v>
+      </c>
+      <c r="K597">
+        <v>11.43628</v>
+      </c>
+      <c r="L597">
+        <v>3.7034833333333332</v>
+      </c>
+      <c r="M597">
+        <v>-9.6712499999999979E-2</v>
+      </c>
+      <c r="N597">
+        <v>1.3427666666666667</v>
+      </c>
+      <c r="O597">
+        <v>0.14813933333333335</v>
+      </c>
+      <c r="P597">
+        <v>-0.60230000000000006</v>
+      </c>
+      <c r="Q597">
+        <v>3.7034833333333332</v>
+      </c>
+      <c r="R597">
+        <v>2.9627866666666667</v>
+      </c>
+      <c r="S597">
+        <v>0.93094999999999994</v>
+      </c>
+      <c r="T597">
+        <v>0.74069666666666667</v>
+      </c>
+      <c r="U597">
+        <v>0</v>
+      </c>
+      <c r="V597">
+        <v>7.7199483369260467</v>
+      </c>
+      <c r="W597">
+        <v>0</v>
+      </c>
+      <c r="X597">
+        <v>0.8</v>
+      </c>
+      <c r="Y597">
+        <v>0.86964039021453465</v>
+      </c>
+      <c r="Z597">
+        <v>4.0462286706797803</v>
+      </c>
+      <c r="AA597">
+        <v>0</v>
+      </c>
+      <c r="AB597">
+        <v>13.129981233883415</v>
+      </c>
+      <c r="AC597">
+        <v>0</v>
+      </c>
+      <c r="AD597">
+        <v>2.9178517497209637</v>
+      </c>
+      <c r="AE597">
+        <v>0.4</v>
+      </c>
+      <c r="AF597">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AG597">
+        <v>0.8</v>
+      </c>
+      <c r="AH597">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AI597">
+        <v>0.25</v>
+      </c>
+      <c r="AJ597">
+        <v>0.11903346192992827</v>
+      </c>
+      <c r="AK597">
+        <v>1.8378643529289993</v>
+      </c>
+      <c r="AL597">
+        <v>63414</v>
+      </c>
+      <c r="AM597">
+        <v>1.8</v>
+      </c>
+      <c r="AN597">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO597">
+        <v>0</v>
+      </c>
+      <c r="AP597">
+        <v>0</v>
+      </c>
+      <c r="AQ597">
+        <v>29</v>
+      </c>
+      <c r="AR597">
+        <v>24</v>
+      </c>
+      <c r="AS597" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT597">
+        <v>1</v>
+      </c>
+      <c r="AU597">
+        <v>6.7032696474295834</v>
+      </c>
+    </row>
+    <row r="598" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>288</v>
+      </c>
+      <c r="B598" t="s">
+        <v>46</v>
+      </c>
+      <c r="C598" t="s">
+        <v>291</v>
+      </c>
+      <c r="D598">
+        <v>2020</v>
+      </c>
+      <c r="E598">
+        <v>57.181399999999996</v>
+      </c>
+      <c r="F598">
+        <v>2.2422</v>
+      </c>
+      <c r="G598">
+        <v>7.4069666666666665</v>
+      </c>
+      <c r="H598">
+        <v>6.8064999999999998</v>
+      </c>
+      <c r="I598">
+        <v>7200000</v>
+      </c>
+      <c r="J598">
+        <v>1.0154000000000001</v>
+      </c>
+      <c r="K598">
+        <v>11.43628</v>
+      </c>
+      <c r="L598">
+        <v>3.7034833333333332</v>
+      </c>
+      <c r="M598">
+        <v>-1.808875</v>
+      </c>
+      <c r="N598">
+        <v>1.3427666666666667</v>
+      </c>
+      <c r="O598">
+        <v>0.14813933333333335</v>
+      </c>
+      <c r="P598">
+        <v>-0.60229999999999995</v>
+      </c>
+      <c r="Q598">
+        <v>3.7034833333333332</v>
+      </c>
+      <c r="R598">
+        <v>2.9627866666666667</v>
+      </c>
+      <c r="S598">
+        <v>0.93094999999999994</v>
+      </c>
+      <c r="T598">
+        <v>0.74069666666666667</v>
+      </c>
+      <c r="U598">
+        <v>0</v>
+      </c>
+      <c r="V598">
+        <v>7.7199483369260467</v>
+      </c>
+      <c r="W598">
+        <v>3.9212051471282622E-2</v>
+      </c>
+      <c r="X598">
+        <v>0.8</v>
+      </c>
+      <c r="Y598">
+        <v>0.86964039021453465</v>
+      </c>
+      <c r="Z598">
+        <v>4.0462286706797803</v>
+      </c>
+      <c r="AA598">
+        <v>0.60543002308637361</v>
+      </c>
+      <c r="AB598">
+        <v>13.129981233883415</v>
+      </c>
+      <c r="AC598">
+        <v>0.30271501154318681</v>
+      </c>
+      <c r="AD598">
+        <v>2.9178517497209637</v>
+      </c>
+      <c r="AE598">
+        <v>0.4</v>
+      </c>
+      <c r="AF598">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AG598">
+        <v>0.8</v>
+      </c>
+      <c r="AH598">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AI598">
+        <v>0.25</v>
+      </c>
+      <c r="AJ598">
+        <v>0.11903346192992827</v>
+      </c>
+      <c r="AK598">
+        <v>1.8378643529289993</v>
+      </c>
+      <c r="AL598">
+        <v>63228</v>
+      </c>
+      <c r="AM598">
+        <v>1.2</v>
+      </c>
+      <c r="AN598">
+        <v>-3.5</v>
+      </c>
+      <c r="AO598">
+        <v>0</v>
+      </c>
+      <c r="AP598">
+        <v>0</v>
+      </c>
+      <c r="AQ598">
+        <v>30</v>
+      </c>
+      <c r="AR598">
+        <v>23</v>
+      </c>
+      <c r="AS598" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT598">
+        <v>1</v>
+      </c>
+      <c r="AU598">
+        <v>6.7032696474295834</v>
+      </c>
+    </row>
+    <row r="599" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>288</v>
+      </c>
+      <c r="B599" t="s">
+        <v>46</v>
+      </c>
+      <c r="C599" t="s">
+        <v>292</v>
+      </c>
+      <c r="D599">
+        <v>2021</v>
+      </c>
+      <c r="E599">
+        <v>70.961100000000002</v>
+      </c>
+      <c r="F599">
+        <v>2.9584000000000001</v>
+      </c>
+      <c r="G599">
+        <v>8.0018999999999991</v>
+      </c>
+      <c r="H599">
+        <v>6.8064999999999998</v>
+      </c>
+      <c r="I599">
+        <v>7200000</v>
+      </c>
+      <c r="J599">
+        <v>0.6573</v>
+      </c>
+      <c r="K599">
+        <v>-3.1951000000000001</v>
+      </c>
+      <c r="L599">
+        <v>5.5094000000000003</v>
+      </c>
+      <c r="M599">
+        <v>1.6154500000000001</v>
+      </c>
+      <c r="N599">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="O599">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="P599">
+        <v>-0.40160000000000001</v>
+      </c>
+      <c r="Q599">
+        <v>100.0031</v>
+      </c>
+      <c r="R599">
+        <v>0</v>
+      </c>
+      <c r="S599">
+        <v>0.93094999999999994</v>
+      </c>
+      <c r="T599">
+        <v>0.80018999999999996</v>
+      </c>
+      <c r="U599">
+        <v>0</v>
+      </c>
+      <c r="V599">
+        <v>8.8680313425561437</v>
+      </c>
+      <c r="W599">
+        <v>4.1690447301408799E-2</v>
+      </c>
+      <c r="X599">
+        <v>0</v>
+      </c>
+      <c r="Y599">
+        <v>0.90319311968487304</v>
+      </c>
+      <c r="Z599">
+        <v>4.2621318395722678</v>
+      </c>
+      <c r="AA599">
+        <v>0.53697317312230008</v>
+      </c>
+      <c r="AB599">
+        <v>170.14285714285717</v>
+      </c>
+      <c r="AC599">
+        <v>0.36971219335407846</v>
+      </c>
+      <c r="AD599">
+        <v>0</v>
+      </c>
+      <c r="AE599">
+        <v>0</v>
+      </c>
+      <c r="AF599">
+        <v>0</v>
+      </c>
+      <c r="AG599">
+        <v>0</v>
+      </c>
+      <c r="AH599">
+        <v>0</v>
+      </c>
+      <c r="AI599">
+        <v>0</v>
+      </c>
+      <c r="AJ599">
+        <v>9.5918749850270074E-2</v>
+      </c>
+      <c r="AK599">
+        <v>1.2354339855519656</v>
+      </c>
+      <c r="AL599">
+        <v>69287</v>
+      </c>
+      <c r="AM599">
+        <v>4.7</v>
+      </c>
+      <c r="AN599">
+        <v>5.9</v>
+      </c>
+      <c r="AO599">
+        <v>0</v>
+      </c>
+      <c r="AP599">
+        <v>0</v>
+      </c>
+      <c r="AQ599">
+        <v>31</v>
+      </c>
+      <c r="AR599">
+        <v>22</v>
+      </c>
+      <c r="AS599" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT599">
+        <v>1</v>
+      </c>
+      <c r="AU599">
+        <v>10.355241137988742</v>
+      </c>
+    </row>
+    <row r="600" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>288</v>
+      </c>
+      <c r="B600" t="s">
+        <v>46</v>
+      </c>
+      <c r="C600" t="s">
+        <v>293</v>
+      </c>
+      <c r="D600">
+        <v>2022</v>
+      </c>
+      <c r="E600">
+        <v>72.415300000000002</v>
+      </c>
+      <c r="F600">
+        <v>2.6957</v>
+      </c>
+      <c r="G600">
+        <v>6.2314999999999996</v>
+      </c>
+      <c r="H600">
+        <v>7.07</v>
+      </c>
+      <c r="I600">
+        <v>7625000</v>
+      </c>
+      <c r="J600">
+        <v>1.3734999999999999</v>
+      </c>
+      <c r="K600">
+        <v>-3.1393</v>
+      </c>
+      <c r="L600">
+        <v>6.8307000000000002</v>
+      </c>
+      <c r="M600">
+        <v>-5.2332000000000001</v>
+      </c>
+      <c r="N600">
+        <v>1.0582</v>
+      </c>
+      <c r="O600">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="P600">
+        <v>-0.80430000000000001</v>
+      </c>
+      <c r="Q600">
+        <v>115.3802</v>
+      </c>
+      <c r="R600">
+        <v>0</v>
+      </c>
+      <c r="S600">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="T600">
+        <v>2.6838000000000002</v>
+      </c>
+      <c r="U600">
+        <v>0</v>
+      </c>
+      <c r="V600">
+        <v>11.620845703281715</v>
+      </c>
+      <c r="W600">
+        <v>3.722555868718351E-2</v>
+      </c>
+      <c r="X600">
+        <v>0</v>
+      </c>
+      <c r="Y600">
+        <v>0.79459259935764104</v>
+      </c>
+      <c r="Z600">
+        <v>4.2824176030323349</v>
+      </c>
+      <c r="AA600">
+        <v>0.39464476554379491</v>
+      </c>
+      <c r="AB600">
+        <v>547.7941176470589</v>
+      </c>
+      <c r="AC600">
+        <v>0.43259247372221776</v>
+      </c>
+      <c r="AD600">
+        <v>0</v>
+      </c>
+      <c r="AE600">
+        <v>0</v>
+      </c>
+      <c r="AF600">
+        <v>0</v>
+      </c>
+      <c r="AG600">
+        <v>0</v>
+      </c>
+      <c r="AH600">
+        <v>0</v>
+      </c>
+      <c r="AI600">
+        <v>0</v>
+      </c>
+      <c r="AJ600">
+        <v>9.7631301672436624E-2</v>
+      </c>
+      <c r="AK600">
+        <v>1.0350330127219758</v>
+      </c>
+      <c r="AL600">
+        <v>76399</v>
+      </c>
+      <c r="AM600">
+        <v>8</v>
+      </c>
+      <c r="AN600">
+        <v>2.1</v>
+      </c>
+      <c r="AO600">
+        <v>0</v>
+      </c>
+      <c r="AP600">
+        <v>0</v>
+      </c>
+      <c r="AQ600">
+        <v>32</v>
+      </c>
+      <c r="AR600">
+        <v>21</v>
+      </c>
+      <c r="AS600" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT600">
+        <v>1</v>
+      </c>
+      <c r="AU600">
+        <v>5.1474335638878781</v>
+      </c>
+    </row>
+    <row r="601" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>288</v>
+      </c>
+      <c r="B601" t="s">
+        <v>46</v>
+      </c>
+      <c r="C601" t="s">
+        <v>294</v>
+      </c>
+      <c r="D601">
+        <v>2023</v>
+      </c>
+      <c r="E601">
+        <v>73.455600000000004</v>
+      </c>
+      <c r="F601">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="G601">
+        <v>7.9874999999999998</v>
+      </c>
+      <c r="H601">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="I601">
+        <v>6875000</v>
+      </c>
+      <c r="J601">
+        <v>1.0154000000000001</v>
+      </c>
+      <c r="K601">
+        <v>-2.8685999999999998</v>
+      </c>
+      <c r="L601">
+        <v>19.031600000000001</v>
+      </c>
+      <c r="M601">
+        <v>8.4641000000000002</v>
+      </c>
+      <c r="N601">
+        <v>2.4188999999999998</v>
+      </c>
+      <c r="O601">
+        <v>1.4E-3</v>
+      </c>
+      <c r="P601">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="Q601">
+        <v>151.1516</v>
+      </c>
+      <c r="R601">
+        <v>0</v>
+      </c>
+      <c r="S601">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="T601">
+        <v>2.927</v>
+      </c>
+      <c r="U601">
+        <v>0</v>
+      </c>
+      <c r="V601">
+        <v>9.1963192488262919</v>
+      </c>
+      <c r="W601">
+        <v>2.9187699780547704E-2</v>
+      </c>
+      <c r="X601">
+        <v>0</v>
+      </c>
+      <c r="Y601">
+        <v>0.90241087116645657</v>
+      </c>
+      <c r="Z601">
+        <v>4.2966811420553155</v>
+      </c>
+      <c r="AA601">
+        <v>0.11265474263855903</v>
+      </c>
+      <c r="AB601">
+        <v>2157.0714285714284</v>
+      </c>
+      <c r="AC601">
+        <v>0.26841940532081382</v>
+      </c>
+      <c r="AD601">
+        <v>0</v>
+      </c>
+      <c r="AE601">
+        <v>0</v>
+      </c>
+      <c r="AF601">
+        <v>0</v>
+      </c>
+      <c r="AG601">
+        <v>0</v>
+      </c>
+      <c r="AH601">
+        <v>0</v>
+      </c>
+      <c r="AI601">
+        <v>0</v>
+      </c>
+      <c r="AJ601">
+        <v>8.9074216261251699E-2</v>
+      </c>
+      <c r="AK601">
+        <v>0.34379663296832635</v>
+      </c>
+      <c r="AL601">
+        <v>80851</v>
+      </c>
+      <c r="AM601">
+        <v>3.7</v>
+      </c>
+      <c r="AN601">
+        <v>2.6</v>
+      </c>
+      <c r="AO601">
+        <v>0</v>
+      </c>
+      <c r="AP601">
+        <v>0</v>
+      </c>
+      <c r="AQ601">
+        <v>33</v>
+      </c>
+      <c r="AR601">
+        <v>20</v>
+      </c>
+      <c r="AS601" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT601">
+        <v>1</v>
+      </c>
+      <c r="AU601">
+        <v>6.4437660035454005</v>
+      </c>
+    </row>
+    <row r="602" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>295</v>
+      </c>
+      <c r="B602" t="s">
+        <v>214</v>
+      </c>
+      <c r="C602" t="s">
+        <v>296</v>
+      </c>
+      <c r="D602">
+        <v>2018</v>
+      </c>
+      <c r="E602">
+        <v>134.85599999999999</v>
+      </c>
+      <c r="F602">
+        <v>-0.2442</v>
+      </c>
+      <c r="G602">
+        <v>924.37530000000004</v>
+      </c>
+      <c r="H602">
+        <v>268.82369999999997</v>
+      </c>
+      <c r="I602">
+        <v>5056600</v>
+      </c>
+      <c r="J602">
+        <v>70.319000000000003</v>
+      </c>
+      <c r="K602">
+        <v>391.0059</v>
+      </c>
+      <c r="L602">
+        <v>457.11439999999999</v>
+      </c>
+      <c r="M602">
+        <v>3.5617999999999999</v>
+      </c>
+      <c r="N602">
+        <v>58.961500000000001</v>
+      </c>
+      <c r="O602">
+        <v>41.4758</v>
+      </c>
+      <c r="P602">
+        <v>0</v>
+      </c>
+      <c r="Q602">
+        <v>467.26089999999999</v>
+      </c>
+      <c r="R602">
+        <v>446.62060000000002</v>
+      </c>
+      <c r="S602">
+        <v>1.0311611111111112</v>
+      </c>
+      <c r="T602">
+        <v>55.614600000000003</v>
+      </c>
+      <c r="U602">
+        <v>0</v>
+      </c>
+      <c r="V602">
+        <v>0.14588879646611067</v>
+      </c>
+      <c r="W602">
+        <v>-1.8108204306816161E-3</v>
+      </c>
+      <c r="X602">
+        <v>0.97704338345061992</v>
+      </c>
+      <c r="Y602">
+        <v>2.9658483322884441</v>
+      </c>
+      <c r="Z602">
+        <v>4.9042075424780069</v>
+      </c>
+      <c r="AA602">
+        <v>-5.3422075524201386E-4</v>
+      </c>
+      <c r="AB602">
+        <v>1.4215880103578473</v>
+      </c>
+      <c r="AC602">
+        <v>-2.6417841324838517E-4</v>
+      </c>
+      <c r="AD602">
+        <v>6.3513502751745614</v>
+      </c>
+      <c r="AE602">
+        <v>0.48315938342359432</v>
+      </c>
+      <c r="AF602">
+        <v>0.49419420515969836</v>
+      </c>
+      <c r="AG602">
+        <v>0.97704338345061992</v>
+      </c>
+      <c r="AH602">
+        <v>0.49419420515969836</v>
+      </c>
+      <c r="AI602">
+        <v>0.12452314111798694</v>
+      </c>
+      <c r="AJ602">
+        <v>1.9934129738387611</v>
+      </c>
+      <c r="AK602">
+        <v>0.58808845225615292</v>
+      </c>
+      <c r="AL602">
+        <v>9155</v>
+      </c>
+      <c r="AM602">
+        <v>3.7</v>
+      </c>
+      <c r="AN602">
+        <v>1.3</v>
+      </c>
+      <c r="AO602">
+        <v>0</v>
+      </c>
+      <c r="AP602">
+        <v>1</v>
+      </c>
+      <c r="AQ602">
+        <v>13</v>
+      </c>
+      <c r="AR602">
+        <v>32</v>
+      </c>
+      <c r="AS602" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT602">
+        <v>0</v>
+      </c>
+      <c r="AU602">
+        <v>3.8229169925624649</v>
+      </c>
+    </row>
+    <row r="603" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>295</v>
+      </c>
+      <c r="B603" t="s">
+        <v>214</v>
+      </c>
+      <c r="C603" t="s">
+        <v>296</v>
+      </c>
+      <c r="D603">
+        <v>2019</v>
+      </c>
+      <c r="E603">
+        <v>124.7859</v>
+      </c>
+      <c r="F603">
+        <v>8.3312000000000008</v>
+      </c>
+      <c r="G603">
+        <v>1321.5585000000001</v>
+      </c>
+      <c r="H603">
+        <v>1044.8875</v>
+      </c>
+      <c r="I603">
+        <v>21704100</v>
+      </c>
+      <c r="J603">
+        <v>79.337299999999999</v>
+      </c>
+      <c r="K603">
+        <v>398.94900000000001</v>
+      </c>
+      <c r="L603">
+        <v>786.92200000000003</v>
+      </c>
+      <c r="M603">
+        <v>4.2466999999999997</v>
+      </c>
+      <c r="N603">
+        <v>68.139799999999994</v>
+      </c>
+      <c r="O603">
+        <v>37.297899999999998</v>
+      </c>
+      <c r="P603">
+        <v>0</v>
+      </c>
+      <c r="Q603">
+        <v>534.63649999999996</v>
+      </c>
+      <c r="R603">
+        <v>498.79500000000002</v>
+      </c>
+      <c r="S603">
+        <v>1.2534277777777776</v>
+      </c>
+      <c r="T603">
+        <v>99.846000000000004</v>
+      </c>
+      <c r="U603">
+        <v>0</v>
+      </c>
+      <c r="V603">
+        <v>9.4423288866894647E-2</v>
+      </c>
+      <c r="W603">
+        <v>6.6763953299210893E-2</v>
+      </c>
+      <c r="X603">
+        <v>0.63385570615639164</v>
+      </c>
+      <c r="Y603">
+        <v>3.1210863923370957</v>
+      </c>
+      <c r="Z603">
+        <v>4.8265994687832885</v>
+      </c>
+      <c r="AA603">
+        <v>1.0587072162171092E-2</v>
+      </c>
+      <c r="AB603">
+        <v>1.8269071449062815</v>
+      </c>
+      <c r="AC603">
+        <v>6.3040720482672548E-3</v>
+      </c>
+      <c r="AD603">
+        <v>6.2870175818940144</v>
+      </c>
+      <c r="AE603">
+        <v>0.37742937599811133</v>
+      </c>
+      <c r="AF603">
+        <v>0.38795084765932158</v>
+      </c>
+      <c r="AG603">
+        <v>0.63385570615639164</v>
+      </c>
+      <c r="AH603">
+        <v>0.38795084765932158</v>
+      </c>
+      <c r="AI603">
+        <v>0.20017442035305086</v>
+      </c>
+      <c r="AJ603">
+        <v>8.3734420315115727</v>
+      </c>
+      <c r="AK603">
+        <v>1.3278158445182624</v>
+      </c>
+      <c r="AL603">
+        <v>8817</v>
+      </c>
+      <c r="AM603">
+        <v>4.3</v>
+      </c>
+      <c r="AN603">
+        <v>1.4</v>
+      </c>
+      <c r="AO603">
+        <v>0</v>
+      </c>
+      <c r="AP603">
+        <v>1</v>
+      </c>
+      <c r="AQ603">
+        <v>14</v>
+      </c>
+      <c r="AR603">
+        <v>31</v>
+      </c>
+      <c r="AS603" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT603">
+        <v>0</v>
+      </c>
+      <c r="AU603">
+        <v>13.170192330719599</v>
+      </c>
+    </row>
+    <row r="604" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>295</v>
+      </c>
+      <c r="B604" t="s">
+        <v>214</v>
+      </c>
+      <c r="C604" t="s">
+        <v>296</v>
+      </c>
+      <c r="D604">
+        <v>2020</v>
+      </c>
+      <c r="E604">
+        <v>95.241699999999994</v>
+      </c>
+      <c r="F604">
+        <v>9.9208999999999996</v>
+      </c>
+      <c r="G604">
+        <v>948.20389999999998</v>
+      </c>
+      <c r="H604">
+        <v>404.4461</v>
+      </c>
+      <c r="I604">
+        <v>104556700</v>
+      </c>
+      <c r="J604">
+        <v>59.992199999999997</v>
+      </c>
+      <c r="K604">
+        <v>256.98559999999998</v>
+      </c>
+      <c r="L604">
+        <v>566.08450000000005</v>
+      </c>
+      <c r="M604">
+        <v>4.0705</v>
+      </c>
+      <c r="N604">
+        <v>46.597200000000001</v>
+      </c>
+      <c r="O604">
+        <v>20.7226</v>
+      </c>
+      <c r="P604">
+        <v>-26.999300000000002</v>
+      </c>
+      <c r="Q604">
+        <v>382.11939999999998</v>
+      </c>
+      <c r="R604">
+        <v>287.03480000000002</v>
+      </c>
+      <c r="S604">
+        <v>0.73509444444444449</v>
+      </c>
+      <c r="T604">
+        <v>30.049299999999999</v>
+      </c>
+      <c r="U604">
+        <v>0</v>
+      </c>
+      <c r="V604">
+        <v>0.10044432426401115</v>
+      </c>
+      <c r="W604">
+        <v>0.10416550733554736</v>
+      </c>
+      <c r="X604">
+        <v>0.50705292231106835</v>
+      </c>
+      <c r="Y604">
+        <v>2.9769017372569264</v>
+      </c>
+      <c r="Z604">
+        <v>4.556417871102366</v>
+      </c>
+      <c r="AA604">
+        <v>1.7525475436970979E-2</v>
+      </c>
+      <c r="AB604">
+        <v>3.5515089805333311</v>
+      </c>
+      <c r="AC604">
+        <v>1.046283399593695E-2</v>
+      </c>
+      <c r="AD604">
+        <v>4.784535322925314</v>
+      </c>
+      <c r="AE604">
+        <v>0.30271421579261593</v>
+      </c>
+      <c r="AF604">
+        <v>0.33645329557073672</v>
+      </c>
+      <c r="AG604">
+        <v>0.50705292231106835</v>
+      </c>
+      <c r="AH604">
+        <v>0.33645329557073672</v>
+      </c>
+      <c r="AI604">
+        <v>0.10468869976741495</v>
+      </c>
+      <c r="AJ604">
+        <v>4.2465233190923728</v>
+      </c>
+      <c r="AK604">
+        <v>0.71446241682999612</v>
+      </c>
+      <c r="AL604">
+        <v>6804</v>
+      </c>
+      <c r="AM604">
+        <v>4.5</v>
+      </c>
+      <c r="AN604">
+        <v>-3.9</v>
+      </c>
+      <c r="AO604">
+        <v>0</v>
+      </c>
+      <c r="AP604">
+        <v>1</v>
+      </c>
+      <c r="AQ604">
+        <v>15</v>
+      </c>
+      <c r="AR604">
+        <v>30</v>
+      </c>
+      <c r="AS604" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT604">
+        <v>0</v>
+      </c>
+      <c r="AU604">
+        <v>6.7416447471504632</v>
+      </c>
+    </row>
+    <row r="605" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>295</v>
+      </c>
+      <c r="B605" t="s">
+        <v>214</v>
+      </c>
+      <c r="C605" t="s">
+        <v>296</v>
+      </c>
+      <c r="D605">
+        <v>2021</v>
+      </c>
+      <c r="E605">
+        <v>438.96780000000001</v>
+      </c>
+      <c r="F605">
+        <v>238.8124</v>
+      </c>
+      <c r="G605">
+        <v>878.19889999999998</v>
+      </c>
+      <c r="H605">
+        <v>197.66200000000001</v>
+      </c>
+      <c r="I605">
+        <v>179536700</v>
+      </c>
+      <c r="J605">
+        <v>315.80829999999997</v>
+      </c>
+      <c r="K605">
+        <v>207.02809999999999</v>
+      </c>
+      <c r="L605">
+        <v>497.98009999999999</v>
+      </c>
+      <c r="M605">
+        <v>34.818199999999997</v>
+      </c>
+      <c r="N605">
+        <v>302.0206</v>
+      </c>
+      <c r="O605">
+        <v>30.4877</v>
+      </c>
+      <c r="P605">
+        <v>-184.54920000000001</v>
+      </c>
+      <c r="Q605">
+        <v>380.21879999999999</v>
+      </c>
+      <c r="R605">
+        <v>287.26159999999999</v>
+      </c>
+      <c r="S605">
+        <v>0.77618500000000001</v>
+      </c>
+      <c r="T605">
+        <v>80.233500000000006</v>
+      </c>
+      <c r="U605">
+        <v>0</v>
+      </c>
+      <c r="V605">
+        <v>0.49985009090765203</v>
+      </c>
+      <c r="W605">
+        <v>0.54403170346435437</v>
+      </c>
+      <c r="X605">
+        <v>0.57685357306446583</v>
+      </c>
+      <c r="Y605">
+        <v>2.9435928887872378</v>
+      </c>
+      <c r="Z605">
+        <v>6.0844260618656749</v>
+      </c>
+      <c r="AA605">
+        <v>0.47956213511343126</v>
+      </c>
+      <c r="AB605">
+        <v>15.959544340832531</v>
+      </c>
+      <c r="AC605">
+        <v>0.2719342964333023</v>
+      </c>
+      <c r="AD605">
+        <v>0.90960750556587655</v>
+      </c>
+      <c r="AE605">
+        <v>0.32710311980577522</v>
+      </c>
+      <c r="AF605">
+        <v>0.3658257069129161</v>
+      </c>
+      <c r="AG605">
+        <v>0.57685357306446583</v>
+      </c>
+      <c r="AH605">
+        <v>0.3658257069129161</v>
+      </c>
+      <c r="AI605">
+        <v>0.27930464774964703</v>
+      </c>
+      <c r="AJ605">
+        <v>0.45028815325406557</v>
+      </c>
+      <c r="AK605">
+        <v>0.39692750774579144</v>
+      </c>
+      <c r="AL605">
+        <v>7525</v>
+      </c>
+      <c r="AM605">
+        <v>10.1</v>
+      </c>
+      <c r="AN605">
+        <v>5</v>
+      </c>
+      <c r="AO605">
+        <v>0</v>
+      </c>
+      <c r="AP605">
+        <v>1</v>
+      </c>
+      <c r="AQ605">
+        <v>16</v>
+      </c>
+      <c r="AR605">
+        <v>29</v>
+      </c>
+      <c r="AS605" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT605">
+        <v>0</v>
+      </c>
+      <c r="AU605">
+        <v>0.62589235305088564</v>
+      </c>
+    </row>
+    <row r="606" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>295</v>
+      </c>
+      <c r="B606" t="s">
+        <v>214</v>
+      </c>
+      <c r="C606" t="s">
+        <v>296</v>
+      </c>
+      <c r="D606">
+        <v>2022</v>
+      </c>
+      <c r="E606">
+        <v>92.986500000000007</v>
+      </c>
+      <c r="F606">
+        <v>-11.062099999999999</v>
+      </c>
+      <c r="G606">
+        <v>770.77319999999997</v>
+      </c>
+      <c r="H606">
+        <v>119.8536</v>
+      </c>
+      <c r="I606">
+        <v>146460400</v>
+      </c>
+      <c r="J606">
+        <v>40.749499999999998</v>
+      </c>
+      <c r="K606">
+        <v>167.60830000000001</v>
+      </c>
+      <c r="L606">
+        <v>486.94420000000002</v>
+      </c>
+      <c r="M606">
+        <v>1.6416999999999999</v>
+      </c>
+      <c r="N606">
+        <v>28.286200000000001</v>
+      </c>
+      <c r="O606">
+        <v>41.072000000000003</v>
+      </c>
+      <c r="P606">
+        <v>-0.66600000000000004</v>
+      </c>
+      <c r="Q606">
+        <v>283.82900000000001</v>
+      </c>
+      <c r="R606">
+        <v>192.6499</v>
+      </c>
+      <c r="S606">
+        <v>0.89034250000000004</v>
+      </c>
+      <c r="T606">
+        <v>25.041599999999999</v>
+      </c>
+      <c r="U606">
+        <v>0</v>
+      </c>
+      <c r="V606">
+        <v>0.12064054640197662</v>
+      </c>
+      <c r="W606">
+        <v>-0.1189645808800202</v>
+      </c>
+      <c r="X606">
+        <v>0.39563034121774115</v>
+      </c>
+      <c r="Y606">
+        <v>2.886926605705185</v>
+      </c>
+      <c r="Z606">
+        <v>4.5324543213260133</v>
+      </c>
+      <c r="AA606">
+        <v>-2.2717387331032998E-2</v>
+      </c>
+      <c r="AB606">
+        <v>0.70491332294507203</v>
+      </c>
+      <c r="AC606">
+        <v>-1.4351952039847779E-2</v>
+      </c>
+      <c r="AD606">
+        <v>4.7276629161094004</v>
+      </c>
+      <c r="AE606">
+        <v>0.24994369290473514</v>
+      </c>
+      <c r="AF606">
+        <v>0.28347788775682425</v>
+      </c>
+      <c r="AG606">
+        <v>0.39563034121774115</v>
+      </c>
+      <c r="AH606">
+        <v>0.28347788775682425</v>
+      </c>
+      <c r="AI606">
+        <v>0.1299850142668125</v>
+      </c>
+      <c r="AJ606">
+        <v>1.2889354906357373</v>
+      </c>
+      <c r="AK606">
+        <v>0.24613415664464222</v>
+      </c>
+      <c r="AL606">
+        <v>8151</v>
+      </c>
+      <c r="AM606">
+        <v>5.8</v>
+      </c>
+      <c r="AN606">
+        <v>2.9</v>
+      </c>
+      <c r="AO606">
+        <v>0</v>
+      </c>
+      <c r="AP606">
+        <v>1</v>
+      </c>
+      <c r="AQ606">
+        <v>17</v>
+      </c>
+      <c r="AR606">
+        <v>28</v>
+      </c>
+      <c r="AS606" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT606">
+        <v>0</v>
+      </c>
+      <c r="AU606">
+        <v>2.9412287267328434</v>
+      </c>
+    </row>
+    <row r="607" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>295</v>
+      </c>
+      <c r="B607" t="s">
+        <v>214</v>
+      </c>
+      <c r="C607" t="s">
+        <v>296</v>
+      </c>
+      <c r="D607">
+        <v>2023</v>
+      </c>
+      <c r="E607">
+        <v>85.116100000000003</v>
+      </c>
+      <c r="F607">
+        <v>-2.0125000000000002</v>
+      </c>
+      <c r="G607">
+        <v>825.23789999999997</v>
+      </c>
+      <c r="H607">
+        <v>150.56360000000001</v>
+      </c>
+      <c r="I607">
+        <v>84683800</v>
+      </c>
+      <c r="J607">
+        <v>47.753500000000003</v>
+      </c>
+      <c r="K607">
+        <v>166.49690000000001</v>
+      </c>
+      <c r="L607">
+        <v>528.67100000000005</v>
+      </c>
+      <c r="M607">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="N607">
+        <v>35.050899999999999</v>
+      </c>
+      <c r="O607">
+        <v>37.965600000000002</v>
+      </c>
+      <c r="P607">
+        <v>-6.4100000000000004E-2</v>
+      </c>
+      <c r="Q607">
+        <v>296.56689999999998</v>
+      </c>
+      <c r="R607">
+        <v>200.57130000000001</v>
+      </c>
+      <c r="S607">
+        <v>0.90634250000000005</v>
+      </c>
+      <c r="T607">
+        <v>34.074399999999997</v>
+      </c>
+      <c r="U607">
+        <v>0</v>
+      </c>
+      <c r="V607">
+        <v>0.10314128810613279</v>
+      </c>
+      <c r="W607">
+        <v>-2.3644175426270706E-2</v>
+      </c>
+      <c r="X607">
+        <v>0.3793877477675151</v>
+      </c>
+      <c r="Y607">
+        <v>2.9165791652328781</v>
+      </c>
+      <c r="Z607">
+        <v>4.4440162068745002</v>
+      </c>
+      <c r="AA607">
+        <v>-3.8067153295716994E-3</v>
+      </c>
+      <c r="AB607">
+        <v>0.92491623996459948</v>
+      </c>
+      <c r="AC607">
+        <v>-2.4386907096729323E-3</v>
+      </c>
+      <c r="AD607">
+        <v>4.2001382097647291</v>
+      </c>
+      <c r="AE607">
+        <v>0.24304664145939009</v>
+      </c>
+      <c r="AF607">
+        <v>0.27504068263730719</v>
+      </c>
+      <c r="AG607">
+        <v>0.3793877477675151</v>
+      </c>
+      <c r="AH607">
+        <v>0.27504068263730719</v>
+      </c>
+      <c r="AI607">
+        <v>0.16988671858835236</v>
+      </c>
+      <c r="AJ607">
+        <v>1.7689203335209203</v>
+      </c>
+      <c r="AK607">
+        <v>0.28479640456919331</v>
+      </c>
+      <c r="AL607">
+        <v>8520</v>
+      </c>
+      <c r="AM607">
+        <v>4.5</v>
+      </c>
+      <c r="AN607">
+        <v>2</v>
+      </c>
+      <c r="AO607">
+        <v>0</v>
+      </c>
+      <c r="AP607">
+        <v>1</v>
+      </c>
+      <c r="AQ607">
+        <v>18</v>
+      </c>
+      <c r="AR607">
+        <v>27</v>
+      </c>
+      <c r="AS607" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT607">
+        <v>0</v>
+      </c>
+      <c r="AU607">
+        <v>3.1529332928476448</v>
+      </c>
+    </row>
+    <row r="608" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>297</v>
+      </c>
+      <c r="B608" t="s">
+        <v>149</v>
+      </c>
+      <c r="C608" t="s">
+        <v>298</v>
+      </c>
+      <c r="D608">
+        <v>2018</v>
+      </c>
+      <c r="E608">
+        <v>9817.4094000000005</v>
+      </c>
+      <c r="F608">
+        <v>309.31229999999999</v>
+      </c>
+      <c r="G608">
+        <v>15189.189899999999</v>
+      </c>
+      <c r="H608">
+        <v>6702.2771000000002</v>
+      </c>
+      <c r="I608">
+        <v>69199574</v>
+      </c>
+      <c r="J608">
+        <v>3170.9353999999998</v>
+      </c>
+      <c r="K608">
+        <v>2903.1075999999998</v>
+      </c>
+      <c r="L608">
+        <v>9353.2536999999993</v>
+      </c>
+      <c r="M608">
+        <v>11.3695</v>
+      </c>
+      <c r="N608">
+        <v>1241.8443</v>
+      </c>
+      <c r="O608">
+        <v>143.35839999999999</v>
+      </c>
+      <c r="P608">
+        <v>-1802.9737</v>
+      </c>
+      <c r="Q608">
+        <v>5835.9363000000003</v>
+      </c>
+      <c r="R608">
+        <v>3240.6905999999999</v>
+      </c>
+      <c r="S608">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="T608">
+        <v>281.56709999999998</v>
+      </c>
+      <c r="U608">
+        <v>56.015900000000002</v>
+      </c>
+      <c r="V608">
+        <v>0.64634186975304064</v>
+      </c>
+      <c r="W608">
+        <v>3.1506509242652136E-2</v>
+      </c>
+      <c r="X608">
+        <v>0.3464773547198875</v>
+      </c>
+      <c r="Y608">
+        <v>4.1815346118258105</v>
+      </c>
+      <c r="Z608">
+        <v>9.1919125579909426</v>
+      </c>
+      <c r="AA608">
+        <v>3.307002139800827E-2</v>
+      </c>
+      <c r="AB608">
+        <v>21.239201888413938</v>
+      </c>
+      <c r="AC608">
+        <v>2.0363976093287241E-2</v>
+      </c>
+      <c r="AD608">
+        <v>1.0219983037182025</v>
+      </c>
+      <c r="AE608">
+        <v>0.21335506510455834</v>
+      </c>
+      <c r="AF608">
+        <v>0.25732133816091279</v>
+      </c>
+      <c r="AG608">
+        <v>0.3464773547198875</v>
+      </c>
+      <c r="AH608">
+        <v>0.25732133816091279</v>
+      </c>
+      <c r="AI608">
+        <v>0.10417008029091082</v>
+      </c>
+      <c r="AJ608">
+        <v>0.68269304323806645</v>
+      </c>
+      <c r="AK608">
+        <v>0.71657172091889276</v>
+      </c>
+      <c r="AL608">
+        <v>11679</v>
+      </c>
+      <c r="AM608">
+        <v>47.6</v>
+      </c>
+      <c r="AN608">
+        <v>-2.6</v>
+      </c>
+      <c r="AO608">
+        <v>0</v>
+      </c>
+      <c r="AP608">
+        <v>0</v>
+      </c>
+      <c r="AQ608">
+        <v>28</v>
+      </c>
+      <c r="AR608">
+        <v>47</v>
+      </c>
+      <c r="AS608" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT608">
+        <v>0</v>
+      </c>
+      <c r="AU608">
+        <v>2.1136593006593576</v>
+      </c>
+    </row>
+    <row r="609" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>297</v>
+      </c>
+      <c r="B609" t="s">
+        <v>149</v>
+      </c>
+      <c r="C609" t="s">
+        <v>298</v>
+      </c>
+      <c r="D609">
+        <v>2019</v>
+      </c>
+      <c r="E609">
+        <v>6889.7241999999997</v>
+      </c>
+      <c r="F609">
+        <v>-127.7868</v>
+      </c>
+      <c r="G609">
+        <v>9657.1273000000001</v>
+      </c>
+      <c r="H609">
+        <v>4897.4630999999999</v>
+      </c>
+      <c r="I609">
+        <v>86340320</v>
+      </c>
+      <c r="J609">
+        <v>2166.0976999999998</v>
+      </c>
+      <c r="K609">
+        <v>2209.806</v>
+      </c>
+      <c r="L609">
+        <v>5175.5119999999997</v>
+      </c>
+      <c r="M609">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="N609">
+        <v>459.11419999999998</v>
+      </c>
+      <c r="O609">
+        <v>281.30169999999998</v>
+      </c>
+      <c r="P609">
+        <v>-1429.2474</v>
+      </c>
+      <c r="Q609">
+        <v>4481.6153000000004</v>
+      </c>
+      <c r="R609">
+        <v>2644.2806</v>
+      </c>
+      <c r="S609">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="T609">
+        <v>427.30889999999999</v>
+      </c>
+      <c r="U609">
+        <v>7.1657999999999999</v>
+      </c>
+      <c r="V609">
+        <v>0.71343412859432842</v>
+      </c>
+      <c r="W609">
+        <v>-1.8547447806401308E-2</v>
+      </c>
+      <c r="X609">
+        <v>0.51092154747201823</v>
+      </c>
+      <c r="Y609">
+        <v>3.9848479563015333</v>
+      </c>
+      <c r="Z609">
+        <v>8.8377863341789453</v>
+      </c>
+      <c r="AA609">
+        <v>-2.4690658624692594E-2</v>
+      </c>
+      <c r="AB609">
+        <v>6.7129405901208559</v>
+      </c>
+      <c r="AC609">
+        <v>-1.3232382263408705E-2</v>
+      </c>
+      <c r="AD609">
+        <v>1.2207577709906623</v>
+      </c>
+      <c r="AE609">
+        <v>0.27381647956530508</v>
+      </c>
+      <c r="AF609">
+        <v>0.33815226761896472</v>
+      </c>
+      <c r="AG609">
+        <v>0.51092154747201823</v>
+      </c>
+      <c r="AH609">
+        <v>0.33815226761896472</v>
+      </c>
+      <c r="AI609">
+        <v>0.16430733561332334</v>
+      </c>
+      <c r="AJ609">
+        <v>0.71083587061438547</v>
+      </c>
+      <c r="AK609">
+        <v>0.9462760592575189</v>
+      </c>
+      <c r="AL609">
+        <v>1045</v>
+      </c>
+      <c r="AM609">
+        <v>53.8</v>
+      </c>
+      <c r="AN609">
+        <v>-0.8</v>
+      </c>
+      <c r="AO609">
+        <v>0</v>
+      </c>
+      <c r="AP609">
+        <v>0</v>
+      </c>
+      <c r="AQ609">
+        <v>29</v>
+      </c>
+      <c r="AR609">
+        <v>46</v>
+      </c>
+      <c r="AS609" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT609">
+        <v>0</v>
+      </c>
+      <c r="AU609">
+        <v>2.2609613130561934</v>
+      </c>
+    </row>
+    <row r="610" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>297</v>
+      </c>
+      <c r="B610" t="s">
+        <v>149</v>
+      </c>
+      <c r="C610" t="s">
+        <v>298</v>
+      </c>
+      <c r="D610">
+        <v>2020</v>
+      </c>
+      <c r="E610">
+        <v>6517.8586999999998</v>
+      </c>
+      <c r="F610">
+        <v>-123.50360000000001</v>
+      </c>
+      <c r="G610">
+        <v>13491.1993</v>
+      </c>
+      <c r="H610">
+        <v>2825.6387</v>
+      </c>
+      <c r="I610">
+        <v>54458417</v>
+      </c>
+      <c r="J610">
+        <v>2215.4052999999999</v>
+      </c>
+      <c r="K610">
+        <v>3351.1129999999998</v>
+      </c>
+      <c r="L610">
+        <v>6975.7192999999997</v>
+      </c>
+      <c r="M610">
+        <v>-4.5975000000000001</v>
+      </c>
+      <c r="N610">
+        <v>438.57679999999999</v>
+      </c>
+      <c r="O610">
+        <v>373.8612</v>
+      </c>
+      <c r="P610">
+        <v>-1130.0023000000001</v>
+      </c>
+      <c r="Q610">
+        <v>6515.48</v>
+      </c>
+      <c r="R610">
+        <v>3776.2208999999998</v>
+      </c>
+      <c r="S610">
+        <v>0.4022</v>
+      </c>
+      <c r="T610">
+        <v>332.35879999999997</v>
+      </c>
+      <c r="U610">
+        <v>92.749099999999999</v>
+      </c>
+      <c r="V610">
+        <v>0.48311929540615411</v>
+      </c>
+      <c r="W610">
+        <v>-1.8948493007373727E-2</v>
+      </c>
+      <c r="X610">
+        <v>0.54133785171086224</v>
+      </c>
+      <c r="Y610">
+        <v>4.1300505579907343</v>
+      </c>
+      <c r="Z610">
+        <v>8.78230118073356</v>
+      </c>
+      <c r="AA610">
+        <v>-1.7704783505265186E-2</v>
+      </c>
+      <c r="AB610">
+        <v>4.1956188553398963</v>
+      </c>
+      <c r="AC610">
+        <v>-9.1543825907308331E-3</v>
+      </c>
+      <c r="AD610">
+        <v>1.7045282414012461</v>
+      </c>
+      <c r="AE610">
+        <v>0.27990253616666977</v>
+      </c>
+      <c r="AF610">
+        <v>0.35121297456620898</v>
+      </c>
+      <c r="AG610">
+        <v>0.54133785171086224</v>
+      </c>
+      <c r="AH610">
+        <v>0.35121297456620898</v>
+      </c>
+      <c r="AI610">
+        <v>0.11257495555940597</v>
+      </c>
+      <c r="AJ610">
+        <v>0.43352254629269582</v>
+      </c>
+      <c r="AK610">
+        <v>0.40506771824950011</v>
+      </c>
+      <c r="AL610">
+        <v>8378</v>
+      </c>
+      <c r="AM610">
+        <v>36.1</v>
+      </c>
+      <c r="AN610">
+        <v>-9.9</v>
+      </c>
+      <c r="AO610">
+        <v>0</v>
+      </c>
+      <c r="AP610">
+        <v>0</v>
+      </c>
+      <c r="AQ610">
+        <v>30</v>
+      </c>
+      <c r="AR610">
+        <v>45</v>
+      </c>
+      <c r="AS610" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT610">
+        <v>0</v>
+      </c>
+      <c r="AU610">
+        <v>1.275450004565756</v>
+      </c>
+    </row>
+    <row r="611" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>297</v>
+      </c>
+      <c r="B611" t="s">
+        <v>149</v>
+      </c>
+      <c r="C611" t="s">
+        <v>298</v>
+      </c>
+      <c r="D611">
+        <v>2021</v>
+      </c>
+      <c r="E611">
+        <v>8725.7834999999995</v>
+      </c>
+      <c r="F611">
+        <v>177.6885</v>
+      </c>
+      <c r="G611">
+        <v>20457.684000000001</v>
+      </c>
+      <c r="H611">
+        <v>2196.7618000000002</v>
+      </c>
+      <c r="I611">
+        <v>76752480</v>
+      </c>
+      <c r="J611">
+        <v>2696.3852000000002</v>
+      </c>
+      <c r="K611">
+        <v>4838.6104999999998</v>
+      </c>
+      <c r="L611">
+        <v>10425.5833</v>
+      </c>
+      <c r="M611">
+        <v>1.0812999999999999</v>
+      </c>
+      <c r="N611">
+        <v>-57.155500000000004</v>
+      </c>
+      <c r="O611">
+        <v>371.04250000000002</v>
+      </c>
+      <c r="P611">
+        <v>-1509.0681999999999</v>
+      </c>
+      <c r="Q611">
+        <v>10032.1008</v>
+      </c>
+      <c r="R611">
+        <v>5419.4512000000004</v>
+      </c>
+      <c r="S611">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="T611">
+        <v>376.34199999999998</v>
+      </c>
+      <c r="U611">
+        <v>204.49879999999999</v>
+      </c>
+      <c r="V611">
+        <v>0.42652841348023557</v>
+      </c>
+      <c r="W611">
+        <v>2.0363615485073636E-2</v>
+      </c>
+      <c r="X611">
+        <v>0.51982234893274515</v>
+      </c>
+      <c r="Y611">
+        <v>4.3108564659864852</v>
+      </c>
+      <c r="Z611">
+        <v>9.0740375424658346</v>
+      </c>
+      <c r="AA611">
+        <v>1.7043506812707544E-2</v>
+      </c>
+      <c r="AB611">
+        <v>3.9130630588140165</v>
+      </c>
+      <c r="AC611">
+        <v>8.6856606055700138E-3</v>
+      </c>
+      <c r="AD611">
+        <v>2.0098950253843553</v>
+      </c>
+      <c r="AE611">
+        <v>0.26491029971916663</v>
+      </c>
+      <c r="AF611">
+        <v>0.34202836226074484</v>
+      </c>
+      <c r="AG611">
+        <v>0.51982234893274515</v>
+      </c>
+      <c r="AH611">
+        <v>0.34202836226074484</v>
+      </c>
+      <c r="AI611">
+        <v>0.10717705143280927</v>
+      </c>
+      <c r="AJ611">
+        <v>0.25175524925641352</v>
+      </c>
+      <c r="AK611">
+        <v>0.21070876676991301</v>
+      </c>
+      <c r="AL611">
+        <v>11987</v>
+      </c>
+      <c r="AM611">
+        <v>50.9</v>
+      </c>
+      <c r="AN611">
+        <v>10.3</v>
+      </c>
+      <c r="AO611">
+        <v>0</v>
+      </c>
+      <c r="AP611">
+        <v>0</v>
+      </c>
+      <c r="AQ611">
+        <v>31</v>
+      </c>
+      <c r="AR611">
+        <v>44</v>
+      </c>
+      <c r="AS611" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT611">
+        <v>0</v>
+      </c>
+      <c r="AU611">
+        <v>0.81470622224154032</v>
+      </c>
+    </row>
+    <row r="612" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>297</v>
+      </c>
+      <c r="B612" t="s">
+        <v>149</v>
+      </c>
+      <c r="C612" t="s">
+        <v>298</v>
+      </c>
+      <c r="D612">
+        <v>2022</v>
+      </c>
+      <c r="E612">
+        <v>17820.052299999999</v>
+      </c>
+      <c r="F612">
+        <v>-5079.1113999999998</v>
+      </c>
+      <c r="G612">
+        <v>30396.0978</v>
+      </c>
+      <c r="H612">
+        <v>2347.5198999999998</v>
+      </c>
+      <c r="I612">
+        <v>28739042</v>
+      </c>
+      <c r="J612">
+        <v>-1118.1832999999999</v>
+      </c>
+      <c r="K612">
+        <v>7905.2407000000003</v>
+      </c>
+      <c r="L612">
+        <v>14285.0344</v>
+      </c>
+      <c r="M612">
+        <v>-21.918500000000002</v>
+      </c>
+      <c r="N612">
+        <v>-7207.8935000000001</v>
+      </c>
+      <c r="O612">
+        <v>323.00459999999998</v>
+      </c>
+      <c r="P612">
+        <v>-2865.5266999999999</v>
+      </c>
+      <c r="Q612">
+        <v>16111.063399999999</v>
+      </c>
+      <c r="R612">
+        <v>8756.5727000000006</v>
+      </c>
+      <c r="S612">
+        <v>0.2984</v>
+      </c>
+      <c r="T612">
+        <v>704.13189999999997</v>
+      </c>
+      <c r="U612">
+        <v>147.20009999999999</v>
+      </c>
+      <c r="V612">
+        <v>0.5862611844866481</v>
+      </c>
+      <c r="W612">
+        <v>-0.28502224990664027</v>
+      </c>
+      <c r="X612">
+        <v>0.61298926238497542</v>
+      </c>
+      <c r="Y612">
+        <v>4.4828178331908504</v>
+      </c>
+      <c r="Z612">
+        <v>9.7880796359250954</v>
+      </c>
+      <c r="AA612">
+        <v>-0.35555471956021328</v>
+      </c>
+      <c r="AB612">
+        <v>-13.443668604100376</v>
+      </c>
+      <c r="AC612">
+        <v>-0.16709748183531636</v>
+      </c>
+      <c r="AD612">
+        <v>-7.8310708986621433</v>
+      </c>
+      <c r="AE612">
+        <v>0.28808213335857868</v>
+      </c>
+      <c r="AF612">
+        <v>0.380033070696705</v>
+      </c>
+      <c r="AG612">
+        <v>0.61298926238497542</v>
+      </c>
+      <c r="AH612">
+        <v>0.380033070696705</v>
+      </c>
+      <c r="AI612">
+        <v>9.722205583926688E-2</v>
+      </c>
+      <c r="AJ612">
+        <v>0.13173473682790482</v>
+      </c>
+      <c r="AK612">
+        <v>0.16433421399391238</v>
+      </c>
+      <c r="AL612">
+        <v>13442</v>
+      </c>
+      <c r="AM612">
+        <v>94.8</v>
+      </c>
+      <c r="AN612">
+        <v>5.2</v>
+      </c>
+      <c r="AO612">
+        <v>0</v>
+      </c>
+      <c r="AP612">
+        <v>0</v>
+      </c>
+      <c r="AQ612">
+        <v>32</v>
+      </c>
+      <c r="AR612">
+        <v>43</v>
+      </c>
+      <c r="AS612" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT612">
+        <v>0</v>
+      </c>
+      <c r="AU612">
+        <v>-2.0994052585117307</v>
+      </c>
+    </row>
+    <row r="613" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>297</v>
+      </c>
+      <c r="B613" t="s">
+        <v>149</v>
+      </c>
+      <c r="C613" t="s">
+        <v>298</v>
+      </c>
+      <c r="D613">
+        <v>2023</v>
+      </c>
+      <c r="E613">
+        <v>17188.370599999998</v>
+      </c>
+      <c r="F613">
+        <v>-2151.404</v>
+      </c>
+      <c r="G613">
+        <v>14753.9782</v>
+      </c>
+      <c r="H613">
+        <v>3079.7739000000001</v>
+      </c>
+      <c r="I613">
+        <v>33637458</v>
+      </c>
+      <c r="J613">
+        <v>4833.8990999999996</v>
+      </c>
+      <c r="K613">
+        <v>5206.4769999999999</v>
+      </c>
+      <c r="L613">
+        <v>6048.0886</v>
+      </c>
+      <c r="M613">
+        <v>3.9157999999999999</v>
+      </c>
+      <c r="N613">
+        <v>-1043.9815000000001</v>
+      </c>
+      <c r="O613">
+        <v>72.472200000000001</v>
+      </c>
+      <c r="P613">
+        <v>-2203.2339999999999</v>
+      </c>
+      <c r="Q613">
+        <v>8705.8896000000004</v>
+      </c>
+      <c r="R613">
+        <v>5970.7416999999996</v>
+      </c>
+      <c r="S613">
+        <v>0.37640000000000001</v>
+      </c>
+      <c r="T613">
+        <v>430.35340000000002</v>
+      </c>
+      <c r="U613">
+        <v>333.91129999999998</v>
+      </c>
+      <c r="V613">
+        <v>1.1649990509000481</v>
+      </c>
+      <c r="W613">
+        <v>-0.12516625630587697</v>
+      </c>
+      <c r="X613">
+        <v>0.98721134806127009</v>
+      </c>
+      <c r="Y613">
+        <v>4.168909137423384</v>
+      </c>
+      <c r="Z613">
+        <v>9.7519883062170116</v>
+      </c>
+      <c r="AA613">
+        <v>-0.35571634979024613</v>
+      </c>
+      <c r="AB613">
+        <v>15.995823226009419</v>
+      </c>
+      <c r="AC613">
+        <v>-0.14581856980105881</v>
+      </c>
+      <c r="AD613">
+        <v>1.2351812846072852</v>
+      </c>
+      <c r="AE613">
+        <v>0.40468689997115487</v>
+      </c>
+      <c r="AF613">
+        <v>0.49678226174805046</v>
+      </c>
+      <c r="AG613">
+        <v>0.98721134806127009</v>
+      </c>
+      <c r="AH613">
+        <v>0.49678226174805046</v>
+      </c>
+      <c r="AI613">
+        <v>0.12800163503974724</v>
+      </c>
+      <c r="AJ613">
+        <v>0.17917776918307779</v>
+      </c>
+      <c r="AK613">
+        <v>0.50921441527824185</v>
+      </c>
+      <c r="AL613">
+        <v>12760</v>
+      </c>
+      <c r="AM613">
+        <v>143</v>
+      </c>
+      <c r="AN613">
+        <v>2</v>
+      </c>
+      <c r="AO613">
+        <v>0</v>
+      </c>
+      <c r="AP613">
+        <v>0</v>
+      </c>
+      <c r="AQ613">
+        <v>33</v>
+      </c>
+      <c r="AR613">
+        <v>42</v>
+      </c>
+      <c r="AS613" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT613">
+        <v>0</v>
+      </c>
+      <c r="AU613">
+        <v>0.63712002180599925</v>
+      </c>
+    </row>
+    <row r="614" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>299</v>
+      </c>
+      <c r="B614" t="s">
+        <v>300</v>
+      </c>
+      <c r="C614" t="s">
+        <v>301</v>
+      </c>
+      <c r="D614">
+        <v>2018</v>
+      </c>
+      <c r="E614">
+        <v>68.462500000000006</v>
+      </c>
+      <c r="F614">
+        <v>-14.582700000000001</v>
+      </c>
+      <c r="G614">
+        <v>167.1069</v>
+      </c>
+      <c r="H614">
+        <v>41.14</v>
+      </c>
+      <c r="I614">
+        <v>4044803</v>
+      </c>
+      <c r="J614">
+        <v>8.9418000000000006</v>
+      </c>
+      <c r="K614">
+        <v>88.477099999999993</v>
+      </c>
+      <c r="L614">
+        <v>37.690800000000003</v>
+      </c>
+      <c r="M614">
+        <v>-5.1247999999999996</v>
+      </c>
+      <c r="N614">
+        <v>-3.3984000000000001</v>
+      </c>
+      <c r="O614">
+        <v>8.7161000000000008</v>
+      </c>
+      <c r="P614">
+        <v>-10.651999999999999</v>
+      </c>
+      <c r="Q614">
+        <v>129.4161</v>
+      </c>
+      <c r="R614">
+        <v>111.6926</v>
+      </c>
+      <c r="S614">
+        <v>1.7635000000000001</v>
+      </c>
+      <c r="T614">
+        <v>23.215499999999999</v>
+      </c>
+      <c r="U614">
+        <v>0</v>
+      </c>
+      <c r="V614">
+        <v>0.40969283733945161</v>
+      </c>
+      <c r="W614">
+        <v>-0.2130027387255797</v>
+      </c>
+      <c r="X614">
+        <v>2.9633915968883651</v>
+      </c>
+      <c r="Y614">
+        <v>2.2229943826884688</v>
+      </c>
+      <c r="Z614">
+        <v>4.2262861501098401</v>
+      </c>
+      <c r="AA614">
+        <v>-0.38690343532108629</v>
+      </c>
+      <c r="AB614">
+        <v>0.83220706508644904</v>
+      </c>
+      <c r="AC614">
+        <v>-8.7265696389556627E-2</v>
+      </c>
+      <c r="AD614">
+        <v>12.491064438927284</v>
+      </c>
+      <c r="AE614">
+        <v>0.66839011435195073</v>
+      </c>
+      <c r="AF614">
+        <v>0.7476908411510248</v>
+      </c>
+      <c r="AG614">
+        <v>2.9633915968883651</v>
+      </c>
+      <c r="AH614">
+        <v>0.7476908411510248</v>
+      </c>
+      <c r="AI614">
+        <v>0.20785172876269331</v>
+      </c>
+      <c r="AJ614">
+        <v>0.60091290852656565</v>
+      </c>
+      <c r="AK614">
+        <v>1.091513048277033</v>
+      </c>
+      <c r="AL614">
+        <v>9715</v>
+      </c>
+      <c r="AM614">
+        <v>4.8</v>
+      </c>
+      <c r="AN614">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO614">
+        <v>0</v>
+      </c>
+      <c r="AP614">
+        <v>0</v>
+      </c>
+      <c r="AQ614">
+        <v>19</v>
+      </c>
+      <c r="AR614">
+        <v>43</v>
+      </c>
+      <c r="AS614" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT614">
+        <v>0</v>
+      </c>
+      <c r="AU614">
+        <v>4.6008633608445724</v>
+      </c>
+    </row>
+    <row r="615" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>299</v>
+      </c>
+      <c r="B615" t="s">
+        <v>300</v>
+      </c>
+      <c r="C615" t="s">
+        <v>301</v>
+      </c>
+      <c r="D615">
+        <v>2019</v>
+      </c>
+      <c r="E615">
+        <v>74.191000000000003</v>
+      </c>
+      <c r="F615">
+        <v>-2.6536</v>
+      </c>
+      <c r="G615">
+        <v>198.76490000000001</v>
+      </c>
+      <c r="H615">
+        <v>19.130800000000001</v>
+      </c>
+      <c r="I615">
+        <v>6683441</v>
+      </c>
+      <c r="J615">
+        <v>10.1675</v>
+      </c>
+      <c r="K615">
+        <v>65.200400000000002</v>
+      </c>
+      <c r="L615">
+        <v>71.955699999999993</v>
+      </c>
+      <c r="M615">
+        <v>-5.7049000000000003</v>
+      </c>
+      <c r="N615">
+        <v>-11.0832</v>
+      </c>
+      <c r="O615">
+        <v>11.063499999999999</v>
+      </c>
+      <c r="P615">
+        <v>-11.0053</v>
+      </c>
+      <c r="Q615">
+        <v>126.8092</v>
+      </c>
+      <c r="R615">
+        <v>81.753200000000007</v>
+      </c>
+      <c r="S615">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="T615">
+        <v>16.552900000000001</v>
+      </c>
+      <c r="U615">
+        <v>0</v>
+      </c>
+      <c r="V615">
+        <v>0.37326006754713736</v>
+      </c>
+      <c r="W615">
+        <v>-3.5767141567036434E-2</v>
+      </c>
+      <c r="X615">
+        <v>1.1361601652127631</v>
+      </c>
+      <c r="Y615">
+        <v>2.2983396945372232</v>
+      </c>
+      <c r="Z615">
+        <v>4.3066428490161082</v>
+      </c>
+      <c r="AA615">
+        <v>-3.6878245920754026E-2</v>
+      </c>
+      <c r="AB615">
+        <v>-7.0411714195326653E-3</v>
+      </c>
+      <c r="AC615">
+        <v>-1.3350445677280042E-2</v>
+      </c>
+      <c r="AD615">
+        <v>8.0406392918613232</v>
+      </c>
+      <c r="AE615">
+        <v>0.41130602032853891</v>
+      </c>
+      <c r="AF615">
+        <v>0.53187030809536728</v>
+      </c>
+      <c r="AG615">
+        <v>1.1361601652127631</v>
+      </c>
+      <c r="AH615">
+        <v>0.53187030809536728</v>
+      </c>
+      <c r="AI615">
+        <v>0.20247403159753991</v>
+      </c>
+      <c r="AJ615">
+        <v>0.25785876993166285</v>
+      </c>
+      <c r="AK615">
+        <v>0.26586913892853525</v>
+      </c>
+      <c r="AL615">
+        <v>9776</v>
+      </c>
+      <c r="AM615">
+        <v>3.6</v>
+      </c>
+      <c r="AN615">
+        <v>0</v>
+      </c>
+      <c r="AO615">
+        <v>0</v>
+      </c>
+      <c r="AP615">
+        <v>0</v>
+      </c>
+      <c r="AQ615">
+        <v>20</v>
+      </c>
+      <c r="AR615">
+        <v>42</v>
+      </c>
+      <c r="AS615" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT615">
+        <v>0</v>
+      </c>
+      <c r="AU615">
+        <v>1.8815638062453897</v>
+      </c>
+    </row>
+    <row r="616" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>299</v>
+      </c>
+      <c r="B616" t="s">
+        <v>300</v>
+      </c>
+      <c r="C616" t="s">
+        <v>301</v>
+      </c>
+      <c r="D616">
+        <v>2020</v>
+      </c>
+      <c r="E616">
+        <v>42.518900000000002</v>
+      </c>
+      <c r="F616">
+        <v>-24.430199999999999</v>
+      </c>
+      <c r="G616">
+        <v>147.26300000000001</v>
+      </c>
+      <c r="H616">
+        <v>7.6772</v>
+      </c>
+      <c r="I616">
+        <v>5840994</v>
+      </c>
+      <c r="J616">
+        <v>5.3244999999999996</v>
+      </c>
+      <c r="K616">
+        <v>77.659499999999994</v>
+      </c>
+      <c r="L616">
+        <v>40.543500000000002</v>
+      </c>
+      <c r="M616">
+        <v>-12.426500000000001</v>
+      </c>
+      <c r="N616">
+        <v>-12.4482</v>
+      </c>
+      <c r="O616">
+        <v>4.7408999999999999</v>
+      </c>
+      <c r="P616">
+        <v>-3.9295</v>
+      </c>
+      <c r="Q616">
+        <v>106.7195</v>
+      </c>
+      <c r="R616">
+        <v>80.789699999999996</v>
+      </c>
+      <c r="S616">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="T616">
+        <v>3.1301000000000001</v>
+      </c>
+      <c r="U616">
+        <v>0</v>
+      </c>
+      <c r="V616">
+        <v>0.28872765053000415</v>
+      </c>
+      <c r="W616">
+        <v>-0.57457271942594934</v>
+      </c>
+      <c r="X616">
+        <v>1.992667135299123</v>
+      </c>
+      <c r="Y616">
+        <v>2.1680936435546081</v>
+      </c>
+      <c r="Z616">
+        <v>3.749948682960369</v>
+      </c>
+      <c r="AA616">
+        <v>-0.60256761256428282</v>
+      </c>
+      <c r="AB616">
+        <v>-1.7968529182222783</v>
+      </c>
+      <c r="AC616">
+        <v>-0.16589503133848962</v>
+      </c>
+      <c r="AD616">
+        <v>15.173199361442389</v>
+      </c>
+      <c r="AE616">
+        <v>0.54860827227477371</v>
+      </c>
+      <c r="AF616">
+        <v>0.66584990752737083</v>
+      </c>
+      <c r="AG616">
+        <v>1.992667135299123</v>
+      </c>
+      <c r="AH616">
+        <v>0.66584990752737083</v>
+      </c>
+      <c r="AI616">
+        <v>3.8743800261667023E-2</v>
+      </c>
+      <c r="AJ616">
+        <v>0.1805597040374986</v>
+      </c>
+      <c r="AK616">
+        <v>0.18935711026428403</v>
+      </c>
+      <c r="AL616">
+        <v>8379</v>
+      </c>
+      <c r="AM616">
+        <v>3.2</v>
+      </c>
+      <c r="AN616">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AO616">
+        <v>0</v>
+      </c>
+      <c r="AP616">
+        <v>0</v>
+      </c>
+      <c r="AQ616">
+        <v>21</v>
+      </c>
+      <c r="AR616">
+        <v>41</v>
+      </c>
+      <c r="AS616" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT616">
+        <v>0</v>
+      </c>
+      <c r="AU616">
+        <v>1.4418630857357499</v>
+      </c>
+    </row>
+    <row r="617" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>299</v>
+      </c>
+      <c r="B617" t="s">
+        <v>300</v>
+      </c>
+      <c r="C617" t="s">
+        <v>301</v>
+      </c>
+      <c r="D617">
+        <v>2021</v>
+      </c>
+      <c r="E617">
+        <v>37.252699999999997</v>
+      </c>
+      <c r="F617">
+        <v>17.960100000000001</v>
+      </c>
+      <c r="G617">
+        <v>131.6524</v>
+      </c>
+      <c r="H617">
+        <v>27.425799999999999</v>
+      </c>
+      <c r="I617">
+        <v>13788512</v>
+      </c>
+      <c r="J617">
+        <v>4.7352999999999996</v>
+      </c>
+      <c r="K617">
+        <v>19.597200000000001</v>
+      </c>
+      <c r="L617">
+        <v>40.22</v>
+      </c>
+      <c r="M617">
+        <v>-12.145</v>
+      </c>
+      <c r="N617">
+        <v>-11.2958</v>
+      </c>
+      <c r="O617">
+        <v>6.6936</v>
+      </c>
+      <c r="P617">
+        <v>-5.1234000000000002</v>
+      </c>
+      <c r="Q617">
+        <v>91.432400000000001</v>
+      </c>
+      <c r="R617">
+        <v>22.061499999999999</v>
+      </c>
+      <c r="S617">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="T617">
+        <v>2.4643000000000002</v>
+      </c>
+      <c r="U617">
+        <v>0</v>
+      </c>
+      <c r="V617">
+        <v>0.28296255898107436</v>
+      </c>
+      <c r="W617">
+        <v>0.48211539029385797</v>
+      </c>
+      <c r="X617">
+        <v>0.54852063649925409</v>
+      </c>
+      <c r="Y617">
+        <v>2.1194287806259533</v>
+      </c>
+      <c r="Z617">
+        <v>3.6177244254202634</v>
+      </c>
+      <c r="AA617">
+        <v>0.44654649428145204</v>
+      </c>
+      <c r="AB617">
+        <v>-0.9221345763117007</v>
+      </c>
+      <c r="AC617">
+        <v>0.13642060456170949</v>
+      </c>
+      <c r="AD617">
+        <v>4.6589445230502822</v>
+      </c>
+      <c r="AE617">
+        <v>0.16757385357198196</v>
+      </c>
+      <c r="AF617">
+        <v>0.35422236137536828</v>
+      </c>
+      <c r="AG617">
+        <v>0.54852063649925409</v>
+      </c>
+      <c r="AH617">
+        <v>0.35422236137536828</v>
+      </c>
+      <c r="AI617">
+        <v>0.1117013802325318</v>
+      </c>
+      <c r="AJ617">
+        <v>0.73620972439581567</v>
+      </c>
+      <c r="AK617">
+        <v>0.68189457981103929</v>
+      </c>
+      <c r="AL617">
+        <v>9767</v>
+      </c>
+      <c r="AM617">
+        <v>5.8</v>
+      </c>
+      <c r="AN617">
+        <v>5.3</v>
+      </c>
+      <c r="AO617">
+        <v>0</v>
+      </c>
+      <c r="AP617">
+        <v>0</v>
+      </c>
+      <c r="AQ617">
+        <v>22</v>
+      </c>
+      <c r="AR617">
+        <v>40</v>
+      </c>
+      <c r="AS617" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT617">
+        <v>0</v>
+      </c>
+      <c r="AU617">
+        <v>5.791776656178067</v>
+      </c>
+    </row>
+    <row r="618" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>299</v>
+      </c>
+      <c r="B618" t="s">
+        <v>300</v>
+      </c>
+      <c r="C618" t="s">
+        <v>301</v>
+      </c>
+      <c r="D618">
+        <v>2022</v>
+      </c>
+      <c r="E618">
+        <v>37.252699999999997</v>
+      </c>
+      <c r="F618">
+        <v>0</v>
+      </c>
+      <c r="G618">
+        <v>161.1968</v>
+      </c>
+      <c r="H618">
+        <v>23.843450000000001</v>
+      </c>
+      <c r="I618">
+        <v>13788512</v>
+      </c>
+      <c r="J618">
+        <v>7.2922750000000001</v>
+      </c>
+      <c r="K618">
+        <v>7.4505400000000002</v>
+      </c>
+      <c r="L618">
+        <v>80.598399999999998</v>
+      </c>
+      <c r="M618">
+        <v>-8.8503000000000007</v>
+      </c>
+      <c r="N618">
+        <v>-9.5564</v>
+      </c>
+      <c r="O618">
+        <v>3.2239360000000001</v>
+      </c>
+      <c r="P618">
+        <v>-7.6775500000000001</v>
+      </c>
+      <c r="Q618">
+        <v>80.598399999999998</v>
+      </c>
+      <c r="R618">
+        <v>64.478719999999996</v>
+      </c>
+      <c r="S618">
+        <v>0.76602500000000007</v>
+      </c>
+      <c r="T618">
+        <v>16.119679999999999</v>
+      </c>
+      <c r="U618">
+        <v>0</v>
+      </c>
+      <c r="V618">
+        <v>0.23110074145392462</v>
+      </c>
+      <c r="W618">
+        <v>0</v>
+      </c>
+      <c r="X618">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="Y618">
+        <v>2.2073564161530901</v>
+      </c>
+      <c r="Z618">
+        <v>3.6177244254202634</v>
+      </c>
+      <c r="AA618">
+        <v>0</v>
+      </c>
+      <c r="AB618">
+        <v>-0.58278141997856037</v>
+      </c>
+      <c r="AC618">
+        <v>0</v>
+      </c>
+      <c r="AD618">
+        <v>8.8420582054297174</v>
+      </c>
+      <c r="AE618">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AF618">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AG618">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AH618">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AI618">
+        <v>0.25</v>
+      </c>
+      <c r="AJ618">
+        <v>0.64004622483739437</v>
+      </c>
+      <c r="AK618">
+        <v>0.29583031424941442</v>
+      </c>
+      <c r="AL618">
+        <v>10425</v>
+      </c>
+      <c r="AM618">
+        <v>7.2</v>
+      </c>
+      <c r="AN618">
+        <v>3.7</v>
+      </c>
+      <c r="AO618">
+        <v>0</v>
+      </c>
+      <c r="AP618">
+        <v>0</v>
+      </c>
+      <c r="AQ618">
+        <v>23</v>
+      </c>
+      <c r="AR618">
+        <v>39</v>
+      </c>
+      <c r="AS618" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT618">
+        <v>0</v>
+      </c>
+      <c r="AU618">
+        <v>3.2696860719048582</v>
+      </c>
+    </row>
+    <row r="619" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>299</v>
+      </c>
+      <c r="B619" t="s">
+        <v>300</v>
+      </c>
+      <c r="C619" t="s">
+        <v>301</v>
+      </c>
+      <c r="D619">
+        <v>2023</v>
+      </c>
+      <c r="E619">
+        <v>37.252699999999997</v>
+      </c>
+      <c r="F619">
+        <v>0</v>
+      </c>
+      <c r="G619">
+        <v>161.1968</v>
+      </c>
+      <c r="H619">
+        <v>23.843450000000001</v>
+      </c>
+      <c r="I619">
+        <v>13788512</v>
+      </c>
+      <c r="J619">
+        <v>7.2922750000000001</v>
+      </c>
+      <c r="K619">
+        <v>7.4505400000000002</v>
+      </c>
+      <c r="L619">
+        <v>80.598399999999998</v>
+      </c>
+      <c r="M619">
+        <v>-8.8503000000000007</v>
+      </c>
+      <c r="N619">
+        <v>-9.5564</v>
+      </c>
+      <c r="O619">
+        <v>3.2239360000000001</v>
+      </c>
+      <c r="P619">
+        <v>-7.6775499999999992</v>
+      </c>
+      <c r="Q619">
+        <v>80.598399999999998</v>
+      </c>
+      <c r="R619">
+        <v>64.478719999999996</v>
+      </c>
+      <c r="S619">
+        <v>0.76602500000000007</v>
+      </c>
+      <c r="T619">
+        <v>16.119679999999999</v>
+      </c>
+      <c r="U619">
+        <v>0</v>
+      </c>
+      <c r="V619">
+        <v>0.23110074145392462</v>
+      </c>
+      <c r="W619">
+        <v>0</v>
+      </c>
+      <c r="X619">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="Y619">
+        <v>2.2073564161530901</v>
+      </c>
+      <c r="Z619">
+        <v>3.6177244254202634</v>
+      </c>
+      <c r="AA619">
+        <v>0</v>
+      </c>
+      <c r="AB619">
+        <v>-0.58278141997856059</v>
+      </c>
+      <c r="AC619">
+        <v>0</v>
+      </c>
+      <c r="AD619">
+        <v>8.8420582054297174</v>
+      </c>
+      <c r="AE619">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AF619">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AG619">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AH619">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AI619">
+        <v>0.25</v>
+      </c>
+      <c r="AJ619">
+        <v>0.64004622483739437</v>
+      </c>
+      <c r="AK619">
+        <v>0.29583031424941442</v>
+      </c>
+      <c r="AL619">
+        <v>10890</v>
+      </c>
+      <c r="AM619">
+        <v>5.3</v>
+      </c>
+      <c r="AN619">
+        <v>2.6</v>
+      </c>
+      <c r="AO619">
+        <v>0</v>
+      </c>
+      <c r="AP619">
+        <v>0</v>
+      </c>
+      <c r="AQ619">
+        <v>24</v>
+      </c>
+      <c r="AR619">
+        <v>38</v>
+      </c>
+      <c r="AS619" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT619">
+        <v>0</v>
+      </c>
+      <c r="AU619">
+        <v>3.2696860719048582</v>
+      </c>
+    </row>
+    <row r="620" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>303</v>
+      </c>
+      <c r="B620" t="s">
+        <v>214</v>
+      </c>
+      <c r="C620" t="s">
+        <v>304</v>
+      </c>
+      <c r="D620">
+        <v>2018</v>
+      </c>
+      <c r="E620">
+        <v>6074.1660000000002</v>
+      </c>
+      <c r="F620">
+        <v>6771.1048000000001</v>
+      </c>
+      <c r="G620">
+        <v>16856.722600000001</v>
+      </c>
+      <c r="H620">
+        <v>801.45699999999999</v>
+      </c>
+      <c r="I620">
+        <v>20986926</v>
+      </c>
+      <c r="J620">
+        <v>153.19139999999999</v>
+      </c>
+      <c r="K620">
+        <v>3046.2687000000001</v>
+      </c>
+      <c r="L620">
+        <v>5897.942</v>
+      </c>
+      <c r="M620">
+        <v>19.5246</v>
+      </c>
+      <c r="N620">
+        <v>-1446.8858</v>
+      </c>
+      <c r="O620">
+        <v>-491.2604</v>
+      </c>
+      <c r="P620">
+        <v>-1444.5385000000001</v>
+      </c>
+      <c r="Q620">
+        <v>10958.780500000001</v>
+      </c>
+      <c r="R620">
+        <v>4237.4822000000004</v>
+      </c>
+      <c r="S620">
+        <v>1.0387999999999999</v>
+      </c>
+      <c r="T620">
+        <v>1129.6570999999999</v>
+      </c>
+      <c r="U620">
+        <v>52.028599999999997</v>
+      </c>
+      <c r="V620">
+        <v>0.36034086483691674</v>
+      </c>
+      <c r="W620">
+        <v>1.1147381879257168</v>
+      </c>
+      <c r="X620">
+        <v>0.71846793339100323</v>
+      </c>
+      <c r="Y620">
+        <v>4.2267731399746413</v>
+      </c>
+      <c r="Z620">
+        <v>8.7117999748338271</v>
+      </c>
+      <c r="AA620">
+        <v>1.148045335135544</v>
+      </c>
+      <c r="AB620">
+        <v>4.7781176744551455E-3</v>
+      </c>
+      <c r="AC620">
+        <v>0.40168572270389025</v>
+      </c>
+      <c r="AD620">
+        <v>27.66135827468122</v>
+      </c>
+      <c r="AE620">
+        <v>0.25138232980116787</v>
+      </c>
+      <c r="AF620">
+        <v>0.41808631946554342</v>
+      </c>
+      <c r="AG620">
+        <v>0.71846793339100323</v>
+      </c>
+      <c r="AH620">
+        <v>0.41808631946554342</v>
+      </c>
+      <c r="AI620">
+        <v>0.27886505340364615</v>
+      </c>
+      <c r="AJ620">
+        <v>0.13194519214654324</v>
+      </c>
+      <c r="AK620">
+        <v>0.13588756891810735</v>
+      </c>
+      <c r="AL620">
+        <v>9155</v>
+      </c>
+      <c r="AM620">
+        <v>3.7</v>
+      </c>
+      <c r="AN620">
+        <v>1.3</v>
+      </c>
+      <c r="AO620">
+        <v>1</v>
+      </c>
+      <c r="AP620">
+        <v>1</v>
+      </c>
+      <c r="AQ620">
+        <v>20</v>
+      </c>
+      <c r="AR620">
+        <v>58</v>
+      </c>
+      <c r="AS620" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT620">
+        <v>0</v>
+      </c>
+      <c r="AU620">
+        <v>5.2317362462905885</v>
+      </c>
+    </row>
+    <row r="621" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>303</v>
+      </c>
+      <c r="B621" t="s">
+        <v>214</v>
+      </c>
+      <c r="C621" t="s">
+        <v>304</v>
+      </c>
+      <c r="D621">
+        <v>2019</v>
+      </c>
+      <c r="E621">
+        <v>2664.1783999999998</v>
+      </c>
+      <c r="F621">
+        <v>-2285.4119999999998</v>
+      </c>
+      <c r="G621">
+        <v>17887.097399999999</v>
+      </c>
+      <c r="H621">
+        <v>1289.8103000000001</v>
+      </c>
+      <c r="I621">
+        <v>209376796</v>
+      </c>
+      <c r="J621">
+        <v>242.94460000000001</v>
+      </c>
+      <c r="K621">
+        <v>5990.5051000000003</v>
+      </c>
+      <c r="L621">
+        <v>4427.8726999999999</v>
+      </c>
+      <c r="M621">
+        <v>-14.163500000000001</v>
+      </c>
+      <c r="N621">
+        <v>-1166.1359</v>
+      </c>
+      <c r="O621">
+        <v>440.52589999999998</v>
+      </c>
+      <c r="P621">
+        <v>-1055.6362999999999</v>
+      </c>
+      <c r="Q621">
+        <v>13459.224700000001</v>
+      </c>
+      <c r="R621">
+        <v>6562.6927999999998</v>
+      </c>
+      <c r="S621">
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="T621">
+        <v>517.99990000000003</v>
+      </c>
+      <c r="U621">
+        <v>45.742899999999999</v>
+      </c>
+      <c r="V621">
+        <v>0.14894414339131401</v>
+      </c>
+      <c r="W621">
+        <v>-0.85782994111805722</v>
+      </c>
+      <c r="X621">
+        <v>1.4821322211905505</v>
+      </c>
+      <c r="Y621">
+        <v>4.2525398718453387</v>
+      </c>
+      <c r="Z621">
+        <v>7.8876509963850596</v>
+      </c>
+      <c r="AA621">
+        <v>-0.51614220977942749</v>
+      </c>
+      <c r="AB621">
+        <v>-0.25083564893687321</v>
+      </c>
+      <c r="AC621">
+        <v>-0.12776874575525038</v>
+      </c>
+      <c r="AD621">
+        <v>27.013124802938609</v>
+      </c>
+      <c r="AE621">
+        <v>0.36689534658652889</v>
+      </c>
+      <c r="AF621">
+        <v>0.59712057582478351</v>
+      </c>
+      <c r="AG621">
+        <v>1.4821322211905505</v>
+      </c>
+      <c r="AH621">
+        <v>0.59712057582478351</v>
+      </c>
+      <c r="AI621">
+        <v>8.5901141068190787E-2</v>
+      </c>
+      <c r="AJ621">
+        <v>0.48413060476730846</v>
+      </c>
+      <c r="AK621">
+        <v>0.29129344662505768</v>
+      </c>
+      <c r="AL621">
+        <v>8817</v>
+      </c>
+      <c r="AM621">
+        <v>4.3</v>
+      </c>
+      <c r="AN621">
+        <v>1.4</v>
+      </c>
+      <c r="AO621">
+        <v>1</v>
+      </c>
+      <c r="AP621">
+        <v>1</v>
+      </c>
+      <c r="AQ621">
+        <v>21</v>
+      </c>
+      <c r="AR621">
+        <v>57</v>
+      </c>
+      <c r="AS621" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT621">
+        <v>0</v>
+      </c>
+      <c r="AU621">
+        <v>5.309071697827406</v>
+      </c>
+    </row>
+    <row r="622" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>303</v>
+      </c>
+      <c r="B622" t="s">
+        <v>214</v>
+      </c>
+      <c r="C622" t="s">
+        <v>304</v>
+      </c>
+      <c r="D622">
+        <v>2020</v>
+      </c>
+      <c r="E622">
+        <v>2140.5740999999998</v>
+      </c>
+      <c r="F622">
+        <v>-2062.1873999999998</v>
+      </c>
+      <c r="G622">
+        <v>14216.362499999999</v>
+      </c>
+      <c r="H622">
+        <v>2552.3231000000001</v>
+      </c>
+      <c r="I622">
+        <v>472908234</v>
+      </c>
+      <c r="J622">
+        <v>497.37119999999999</v>
+      </c>
+      <c r="K622">
+        <v>4689.7869000000001</v>
+      </c>
+      <c r="L622">
+        <v>1495.9395</v>
+      </c>
+      <c r="M622">
+        <v>-4.8249000000000004</v>
+      </c>
+      <c r="N622">
+        <v>-267.35719999999998</v>
+      </c>
+      <c r="O622">
+        <v>1815.6387999999999</v>
+      </c>
+      <c r="P622">
+        <v>-676.65359999999998</v>
+      </c>
+      <c r="Q622">
+        <v>12720.423000000001</v>
+      </c>
+      <c r="R622">
+        <v>5519.9750000000004</v>
+      </c>
+      <c r="S622">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="T622">
+        <v>790.90120000000002</v>
+      </c>
+      <c r="U622">
+        <v>37.295900000000003</v>
+      </c>
+      <c r="V622">
+        <v>0.15057115348599193</v>
+      </c>
+      <c r="W622">
+        <v>-0.96338052487881642</v>
+      </c>
+      <c r="X622">
+        <v>3.6899720877749402</v>
+      </c>
+      <c r="Y622">
+        <v>4.1527884889209448</v>
+      </c>
+      <c r="Z622">
+        <v>7.6688293430656964</v>
+      </c>
+      <c r="AA622">
+        <v>-1.3785232624715102</v>
+      </c>
+      <c r="AB622">
+        <v>0.22542831757065337</v>
+      </c>
+      <c r="AC622">
+        <v>-0.14505731687694373</v>
+      </c>
+      <c r="AD622">
+        <v>11.098300424310859</v>
+      </c>
+      <c r="AE622">
+        <v>0.38828321942409677</v>
+      </c>
+      <c r="AF622">
+        <v>0.78677911482530183</v>
+      </c>
+      <c r="AG622">
+        <v>3.6899720877749402</v>
+      </c>
+      <c r="AH622">
+        <v>0.78677911482530183</v>
+      </c>
+      <c r="AI622">
+        <v>0.15003638603435704</v>
+      </c>
+      <c r="AJ622">
+        <v>1.1923544716345023</v>
+      </c>
+      <c r="AK622">
+        <v>1.7061673282910172</v>
+      </c>
+      <c r="AL622">
+        <v>6804</v>
+      </c>
+      <c r="AM622">
+        <v>4.5</v>
+      </c>
+      <c r="AN622">
+        <v>-3.9</v>
+      </c>
+      <c r="AO622">
+        <v>1</v>
+      </c>
+      <c r="AP622">
+        <v>1</v>
+      </c>
+      <c r="AQ622">
+        <v>22</v>
+      </c>
+      <c r="AR622">
+        <v>56</v>
+      </c>
+      <c r="AS622" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT622">
+        <v>0</v>
+      </c>
+      <c r="AU622">
+        <v>5.1316262381094848</v>
+      </c>
+    </row>
+    <row r="623" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>303</v>
+      </c>
+      <c r="B623" t="s">
+        <v>214</v>
+      </c>
+      <c r="C623" t="s">
+        <v>304</v>
+      </c>
+      <c r="D623">
+        <v>2021</v>
+      </c>
+      <c r="E623">
+        <v>1945.7617</v>
+      </c>
+      <c r="F623">
+        <v>-1936.1039000000001</v>
+      </c>
+      <c r="G623">
+        <v>13647.171700000001</v>
+      </c>
+      <c r="H623">
+        <v>916.63400000000001</v>
+      </c>
+      <c r="I623">
+        <v>242024523</v>
+      </c>
+      <c r="J623">
+        <v>19.679600000000001</v>
+      </c>
+      <c r="K623">
+        <v>5900.7542000000003</v>
+      </c>
+      <c r="L623">
+        <v>-473.52420000000001</v>
+      </c>
+      <c r="M623">
+        <v>-16.379000000000001</v>
+      </c>
+      <c r="N623">
+        <v>-745.98559999999998</v>
+      </c>
+      <c r="O623">
+        <v>753.09320000000002</v>
+      </c>
+      <c r="P623">
+        <v>-649.58690000000001</v>
+      </c>
+      <c r="Q623">
+        <v>14120.695900000001</v>
+      </c>
+      <c r="R623">
+        <v>6459.8927000000003</v>
+      </c>
+      <c r="S623">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="T623">
+        <v>523.60239999999999</v>
+      </c>
+      <c r="U623">
+        <v>33.844700000000003</v>
+      </c>
+      <c r="V623">
+        <v>0.14257618668342834</v>
+      </c>
+      <c r="W623">
+        <v>-0.99503649393448335</v>
+      </c>
+      <c r="X623">
+        <v>-13.642159577060687</v>
+      </c>
+      <c r="Y623">
+        <v>4.135042655599845</v>
+      </c>
+      <c r="Z623">
+        <v>7.5734087989269057</v>
+      </c>
+      <c r="AA623">
+        <v>4.0887116223415827</v>
+      </c>
+      <c r="AB623">
+        <v>-0.12800367869474849</v>
+      </c>
+      <c r="AC623">
+        <v>-0.1418685089160269</v>
+      </c>
+      <c r="AD623">
+        <v>328.2532520986199</v>
+      </c>
+      <c r="AE623">
+        <v>0.47335029132812917</v>
+      </c>
+      <c r="AF623">
+        <v>1.0791004095387713</v>
+      </c>
+      <c r="AG623">
+        <v>-13.642159577060687</v>
+      </c>
+      <c r="AH623">
+        <v>1.0791004095387713</v>
+      </c>
+      <c r="AI623">
+        <v>8.629355407095228E-2</v>
+      </c>
+      <c r="AJ623">
+        <v>0.47109263174416477</v>
+      </c>
+      <c r="AK623">
+        <v>-1.9357701253705724</v>
+      </c>
+      <c r="AL623">
+        <v>7525</v>
+      </c>
+      <c r="AM623">
+        <v>10.1</v>
+      </c>
+      <c r="AN623">
+        <v>5</v>
+      </c>
+      <c r="AO623">
+        <v>1</v>
+      </c>
+      <c r="AP623">
+        <v>1</v>
+      </c>
+      <c r="AQ623">
+        <v>23</v>
+      </c>
+      <c r="AR623">
+        <v>55</v>
+      </c>
+      <c r="AS623" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT623">
+        <v>0</v>
+      </c>
+      <c r="AU623">
+        <v>46.577877599138191</v>
+      </c>
+    </row>
+    <row r="624" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>303</v>
+      </c>
+      <c r="B624" t="s">
+        <v>214</v>
+      </c>
+      <c r="C624" t="s">
+        <v>304</v>
+      </c>
+      <c r="D624">
+        <v>2022</v>
+      </c>
+      <c r="E624">
+        <v>2034.8602000000001</v>
+      </c>
+      <c r="F624">
+        <v>-3739.4216000000001</v>
+      </c>
+      <c r="G624">
+        <v>5601.683</v>
+      </c>
+      <c r="H624">
+        <v>22.252700000000001</v>
+      </c>
+      <c r="I624">
+        <v>221354567</v>
+      </c>
+      <c r="J624">
+        <v>-2724.5363000000002</v>
+      </c>
+      <c r="K624">
+        <v>4201.1382999999996</v>
+      </c>
+      <c r="L624">
+        <v>-4132.0222999999996</v>
+      </c>
+      <c r="M624">
+        <v>-136.79939999999999</v>
+      </c>
+      <c r="N624">
+        <v>-3544.0738999999999</v>
+      </c>
+      <c r="O624">
+        <v>711.22310000000004</v>
+      </c>
+      <c r="P624">
+        <v>-278.98320000000001</v>
+      </c>
+      <c r="Q624">
+        <v>9733.7052999999996</v>
+      </c>
+      <c r="R624">
+        <v>4810.7761</v>
+      </c>
+      <c r="S624">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="T624">
+        <v>568.51350000000002</v>
+      </c>
+      <c r="U624">
+        <v>39.2014</v>
+      </c>
+      <c r="V624">
+        <v>0.36325872063806541</v>
+      </c>
+      <c r="W624">
+        <v>-1.8376798563360766</v>
+      </c>
+      <c r="X624">
+        <v>-1.164266732055149</v>
+      </c>
+      <c r="Y624">
+        <v>3.7483185283993468</v>
+      </c>
+      <c r="Z624">
+        <v>7.6181823977281962</v>
+      </c>
+      <c r="AA624">
+        <v>0.90498582255957338</v>
+      </c>
+      <c r="AB624">
+        <v>-4.5908108159029135</v>
+      </c>
+      <c r="AC624">
+        <v>-0.66755323355498697</v>
+      </c>
+      <c r="AD624">
+        <v>-1.7657228864963186</v>
+      </c>
+      <c r="AE624">
+        <v>0.85880905792062856</v>
+      </c>
+      <c r="AF624">
+        <v>7.0876599143901622</v>
+      </c>
+      <c r="AG624">
+        <v>-1.164266732055149</v>
+      </c>
+      <c r="AH624">
+        <v>7.0876599143901622</v>
+      </c>
+      <c r="AI624">
+        <v>0.12632367155894036</v>
+      </c>
+      <c r="AJ624">
+        <v>1.0935738976073148E-2</v>
+      </c>
+      <c r="AK624">
+        <v>-5.3854259208620447E-3</v>
+      </c>
+      <c r="AL624">
+        <v>8151</v>
+      </c>
+      <c r="AM624">
+        <v>5.8</v>
+      </c>
+      <c r="AN624">
+        <v>2.9</v>
+      </c>
+      <c r="AO624">
+        <v>1</v>
+      </c>
+      <c r="AP624">
+        <v>1</v>
+      </c>
+      <c r="AQ624">
+        <v>24</v>
+      </c>
+      <c r="AR624">
+        <v>54</v>
+      </c>
+      <c r="AS624" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT624">
+        <v>0</v>
+      </c>
+      <c r="AU624">
+        <v>-8.1675182672368875E-3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>303</v>
+      </c>
+      <c r="B625" t="s">
+        <v>214</v>
+      </c>
+      <c r="C625" t="s">
+        <v>304</v>
+      </c>
+      <c r="D625">
+        <v>2023</v>
+      </c>
+      <c r="E625">
+        <v>1947.5328999999999</v>
+      </c>
+      <c r="F625">
+        <v>-1088.4150999999999</v>
+      </c>
+      <c r="G625">
+        <v>5383.6086999999998</v>
+      </c>
+      <c r="H625">
+        <v>90.237099999999998</v>
+      </c>
+      <c r="I625">
+        <v>327640972</v>
+      </c>
+      <c r="J625">
+        <v>-72.871799999999993</v>
+      </c>
+      <c r="K625">
+        <v>5560.7343000000001</v>
+      </c>
+      <c r="L625">
+        <v>-5622.5439999999999</v>
+      </c>
+      <c r="M625">
+        <v>-99.343999999999994</v>
+      </c>
+      <c r="N625">
+        <v>-383.85520000000002</v>
+      </c>
+      <c r="O625">
+        <v>702.2758</v>
+      </c>
+      <c r="P625">
+        <v>-149.3252</v>
+      </c>
+      <c r="Q625">
+        <v>11006.152700000001</v>
+      </c>
+      <c r="R625">
+        <v>6012.8571000000002</v>
+      </c>
+      <c r="S625">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="T625">
+        <v>368.94979999999998</v>
+      </c>
+      <c r="U625">
+        <v>81.0304</v>
+      </c>
+      <c r="V625">
+        <v>0.36175231309065981</v>
+      </c>
+      <c r="W625">
+        <v>-0.55886865890686621</v>
+      </c>
+      <c r="X625">
+        <v>-1.0694193055670174</v>
+      </c>
+      <c r="Y625">
+        <v>3.7310734862815735</v>
+      </c>
+      <c r="Z625">
+        <v>7.5743186710553552</v>
+      </c>
+      <c r="AA625">
+        <v>0.1935805393430447</v>
+      </c>
+      <c r="AB625">
+        <v>-0.33395711485430657</v>
+      </c>
+      <c r="AC625">
+        <v>-0.20217203007343382</v>
+      </c>
+      <c r="AD625">
+        <v>-82.512811540266611</v>
+      </c>
+      <c r="AE625">
+        <v>1.1168822689509363</v>
+      </c>
+      <c r="AF625">
+        <v>15.405214685338503</v>
+      </c>
+      <c r="AG625">
+        <v>-1.0694193055670174</v>
+      </c>
+      <c r="AH625">
+        <v>15.405214685338503</v>
+      </c>
+      <c r="AI625">
+        <v>7.4836336955355215E-2</v>
+      </c>
+      <c r="AJ625">
+        <v>4.6334056795651564E-2</v>
+      </c>
+      <c r="AK625">
+        <v>-1.604915853037344E-2</v>
+      </c>
+      <c r="AL625">
+        <v>8520</v>
+      </c>
+      <c r="AM625">
+        <v>4.5</v>
+      </c>
+      <c r="AN625">
+        <v>2</v>
+      </c>
+      <c r="AO625">
+        <v>1</v>
+      </c>
+      <c r="AP625">
+        <v>1</v>
+      </c>
+      <c r="AQ625">
+        <v>25</v>
+      </c>
+      <c r="AR625">
+        <v>53</v>
+      </c>
+      <c r="AS625" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT625">
+        <v>0</v>
+      </c>
+      <c r="AU625">
+        <v>-1.2382993146868886</v>
+      </c>
+    </row>
+    <row r="626" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>306</v>
+      </c>
+      <c r="B626" t="s">
+        <v>46</v>
+      </c>
+      <c r="C626" t="s">
+        <v>307</v>
+      </c>
+      <c r="D626">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="627" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>306</v>
+      </c>
+      <c r="B627" t="s">
+        <v>46</v>
+      </c>
+      <c r="C627" t="s">
+        <v>307</v>
+      </c>
+      <c r="D627">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="628" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>306</v>
+      </c>
+      <c r="B628" t="s">
+        <v>46</v>
+      </c>
+      <c r="C628" t="s">
+        <v>307</v>
+      </c>
+      <c r="D628">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="629" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>306</v>
+      </c>
+      <c r="B629" t="s">
+        <v>46</v>
+      </c>
+      <c r="C629" t="s">
+        <v>307</v>
+      </c>
+      <c r="D629">
+        <v>2021</v>
+      </c>
+      <c r="E629">
+        <v>352.66399999999999</v>
+      </c>
+      <c r="F629">
+        <v>109.001</v>
+      </c>
+      <c r="G629">
+        <v>562.81200000000001</v>
+      </c>
+      <c r="H629">
+        <v>1151.7822000000001</v>
+      </c>
+      <c r="I629">
+        <v>15896588</v>
+      </c>
+      <c r="J629">
+        <v>229.62200000000001</v>
+      </c>
+      <c r="K629">
+        <v>741.79100000000005</v>
+      </c>
+      <c r="L629">
+        <v>-332.66500000000002</v>
+      </c>
+      <c r="M629">
+        <v>16.812899999999999</v>
+      </c>
+      <c r="N629">
+        <v>175.136</v>
+      </c>
+      <c r="O629">
+        <v>14.212</v>
+      </c>
+      <c r="P629">
+        <v>-32.997999999999998</v>
+      </c>
+      <c r="Q629">
+        <v>895.47699999999998</v>
+      </c>
+      <c r="R629">
+        <v>808.56899999999996</v>
+      </c>
+      <c r="S629">
+        <v>1.175</v>
+      </c>
+      <c r="T629">
+        <v>66.778000000000006</v>
+      </c>
+      <c r="U629">
+        <v>0</v>
+      </c>
+      <c r="V629">
+        <v>0.62661066217493577</v>
+      </c>
+      <c r="W629">
+        <v>0.30907889662681765</v>
+      </c>
+      <c r="X629">
+        <v>-2.4305803135286248</v>
+      </c>
+      <c r="Y629">
+        <v>2.7503633486742638</v>
+      </c>
+      <c r="Z629">
+        <v>5.8655157622848746</v>
+      </c>
+      <c r="AA629">
+        <v>-0.32765995821622351</v>
+      </c>
+      <c r="AB629">
+        <v>14.644947931325639</v>
+      </c>
+      <c r="AC629">
+        <v>0.19367213207962872</v>
+      </c>
+      <c r="AD629">
+        <v>3.5213045788295543</v>
+      </c>
+      <c r="AE629">
+        <v>1.4366591330675251</v>
+      </c>
+      <c r="AF629">
+        <v>1.6990170286444326</v>
+      </c>
+      <c r="AG629">
+        <v>-2.4305803135286248</v>
+      </c>
+      <c r="AH629">
+        <v>1.6990170286444326</v>
+      </c>
+      <c r="AI629">
+        <v>8.2587880564305591E-2</v>
+      </c>
+      <c r="AJ629">
+        <v>3.2659477576389997</v>
+      </c>
+      <c r="AK629">
+        <v>-3.4622884884192806</v>
+      </c>
+      <c r="AL629">
+        <v>69287</v>
+      </c>
+      <c r="AM629">
+        <v>4.7</v>
+      </c>
+      <c r="AN629">
+        <v>5.9</v>
+      </c>
+      <c r="AO629">
+        <v>0</v>
+      </c>
+      <c r="AP629">
+        <v>1</v>
+      </c>
+      <c r="AQ629">
+        <v>0</v>
+      </c>
+      <c r="AR629">
+        <v>17</v>
+      </c>
+      <c r="AS629" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT629">
+        <v>1</v>
+      </c>
+      <c r="AU629">
+        <v>5.0159923700690703</v>
+      </c>
+    </row>
+    <row r="630" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>306</v>
+      </c>
+      <c r="B630" t="s">
+        <v>46</v>
+      </c>
+      <c r="C630" t="s">
+        <v>307</v>
+      </c>
+      <c r="D630">
+        <v>2022</v>
+      </c>
+      <c r="E630">
+        <v>362.42200000000003</v>
+      </c>
+      <c r="F630">
+        <v>72.713999999999999</v>
+      </c>
+      <c r="G630">
+        <v>633.899</v>
+      </c>
+      <c r="H630">
+        <v>1065.9445000000001</v>
+      </c>
+      <c r="I630">
+        <v>25226571</v>
+      </c>
+      <c r="J630">
+        <v>169.34100000000001</v>
+      </c>
+      <c r="K630">
+        <v>716.37099999999998</v>
+      </c>
+      <c r="L630">
+        <v>-255.261</v>
+      </c>
+      <c r="M630">
+        <v>22.854500000000002</v>
+      </c>
+      <c r="N630">
+        <v>151.91800000000001</v>
+      </c>
+      <c r="O630">
+        <v>51.423000000000002</v>
+      </c>
+      <c r="P630">
+        <v>-30.045000000000002</v>
+      </c>
+      <c r="Q630">
+        <v>889.16</v>
+      </c>
+      <c r="R630">
+        <v>810.53499999999997</v>
+      </c>
+      <c r="S630">
+        <v>1.7133</v>
+      </c>
+      <c r="T630">
+        <v>94.164000000000001</v>
+      </c>
+      <c r="U630">
+        <v>0</v>
+      </c>
+      <c r="V630">
+        <v>0.57173461387381908</v>
+      </c>
+      <c r="W630">
+        <v>0.20063351562543111</v>
+      </c>
+      <c r="X630">
+        <v>-3.1753185954767864</v>
+      </c>
+      <c r="Y630">
+        <v>2.8020200666563038</v>
+      </c>
+      <c r="Z630">
+        <v>5.8928092787280315</v>
+      </c>
+      <c r="AA630">
+        <v>-0.28486137717865245</v>
+      </c>
+      <c r="AB630">
+        <v>3.5385527876631082</v>
+      </c>
+      <c r="AC630">
+        <v>0.11470912558625269</v>
+      </c>
+      <c r="AD630">
+        <v>4.7864073083305279</v>
+      </c>
+      <c r="AE630">
+        <v>1.2786500688595501</v>
+      </c>
+      <c r="AF630">
+        <v>1.4597027773675699</v>
+      </c>
+      <c r="AG630">
+        <v>-3.1753185954767864</v>
+      </c>
+      <c r="AH630">
+        <v>1.4597027773675699</v>
+      </c>
+      <c r="AI630">
+        <v>0.11617511890294682</v>
+      </c>
+      <c r="AJ630">
+        <v>2.9411694102455148</v>
+      </c>
+      <c r="AK630">
+        <v>-4.1759003529720564</v>
+      </c>
+      <c r="AL630">
+        <v>76399</v>
+      </c>
+      <c r="AM630">
+        <v>8</v>
+      </c>
+      <c r="AN630">
+        <v>2.1</v>
+      </c>
+      <c r="AO630">
+        <v>0</v>
+      </c>
+      <c r="AP630">
+        <v>1</v>
+      </c>
+      <c r="AQ630">
+        <v>1</v>
+      </c>
+      <c r="AR630">
+        <v>16</v>
+      </c>
+      <c r="AS630" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT630">
+        <v>1</v>
+      </c>
+      <c r="AU630">
+        <v>6.2946628400682645</v>
+      </c>
+    </row>
+    <row r="631" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>306</v>
+      </c>
+      <c r="B631" t="s">
+        <v>46</v>
+      </c>
+      <c r="C631" t="s">
+        <v>307</v>
+      </c>
+      <c r="D631">
+        <v>2023</v>
+      </c>
+      <c r="E631">
+        <v>362.56200000000001</v>
+      </c>
+      <c r="F631">
+        <v>77.295000000000002</v>
+      </c>
+      <c r="G631">
+        <v>647.255</v>
+      </c>
+      <c r="H631">
+        <v>502.01589999999999</v>
+      </c>
+      <c r="I631">
+        <v>35290329</v>
+      </c>
+      <c r="J631">
+        <v>167.31299999999999</v>
+      </c>
+      <c r="K631">
+        <v>660.51499999999999</v>
+      </c>
+      <c r="L631">
+        <v>-176.12200000000001</v>
+      </c>
+      <c r="M631">
+        <v>20.5213</v>
+      </c>
+      <c r="N631">
+        <v>147.22900000000001</v>
+      </c>
+      <c r="O631">
+        <v>41.652000000000001</v>
+      </c>
+      <c r="P631">
+        <v>-36.460999999999999</v>
+      </c>
+      <c r="Q631">
+        <v>823.37699999999995</v>
+      </c>
+      <c r="R631">
+        <v>749.23</v>
+      </c>
+      <c r="S631">
+        <v>1.6117999999999999</v>
+      </c>
+      <c r="T631">
+        <v>88.715000000000003</v>
+      </c>
+      <c r="U631">
+        <v>0</v>
+      </c>
+      <c r="V631">
+        <v>0.56015326262446796</v>
+      </c>
+      <c r="W631">
+        <v>0.21319112317341585</v>
+      </c>
+      <c r="X631">
+        <v>-4.2540398133112269</v>
+      </c>
+      <c r="Y631">
+        <v>2.8110754140146303</v>
+      </c>
+      <c r="Z631">
+        <v>5.8931954941527582</v>
+      </c>
+      <c r="AA631">
+        <v>-0.43887191832933986</v>
+      </c>
+      <c r="AB631">
+        <v>4.4101123595505616</v>
+      </c>
+      <c r="AC631">
+        <v>0.11941970320816371</v>
+      </c>
+      <c r="AD631">
+        <v>4.4780142606970177</v>
+      </c>
+      <c r="AE631">
+        <v>1.1575499609891002</v>
+      </c>
+      <c r="AF631">
+        <v>1.3073103149842613</v>
+      </c>
+      <c r="AG631">
+        <v>-4.2540398133112269</v>
+      </c>
+      <c r="AH631">
+        <v>1.3073103149842613</v>
+      </c>
+      <c r="AI631">
+        <v>0.11840823245198404</v>
+      </c>
+      <c r="AJ631">
+        <v>1.3846346280084509</v>
+      </c>
+      <c r="AK631">
+        <v>-2.8503872315781105</v>
+      </c>
+      <c r="AL631">
+        <v>80851</v>
+      </c>
+      <c r="AM631">
+        <v>3.7</v>
+      </c>
+      <c r="AN631">
+        <v>2.6</v>
+      </c>
+      <c r="AO631">
+        <v>0</v>
+      </c>
+      <c r="AP631">
+        <v>1</v>
+      </c>
+      <c r="AQ631">
+        <v>2</v>
+      </c>
+      <c r="AR631">
+        <v>15</v>
+      </c>
+      <c r="AS631" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT631">
+        <v>1</v>
+      </c>
+      <c r="AU631">
+        <v>3.0004596176029361</v>
+      </c>
+    </row>
+    <row r="632" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>308</v>
+      </c>
+      <c r="B632" t="s">
+        <v>46</v>
+      </c>
+      <c r="C632" t="s">
+        <v>309</v>
+      </c>
+      <c r="D632">
+        <v>2018</v>
+      </c>
+      <c r="E632">
+        <v>2936.9</v>
+      </c>
+      <c r="F632">
+        <v>0</v>
+      </c>
+      <c r="G632">
+        <v>3737.2666666666669</v>
+      </c>
+      <c r="H632">
+        <v>0</v>
+      </c>
+      <c r="I632">
+        <v>0</v>
+      </c>
+      <c r="J632">
+        <v>386.28125</v>
+      </c>
+      <c r="K632">
+        <v>587.38</v>
+      </c>
+      <c r="L632">
+        <v>1868.6333333333334</v>
+      </c>
+      <c r="M632">
+        <v>5.8266999999999998</v>
+      </c>
+      <c r="N632">
+        <v>278.45</v>
+      </c>
+      <c r="O632">
+        <v>74.745333333333335</v>
+      </c>
+      <c r="P632">
+        <v>-41.95</v>
+      </c>
+      <c r="Q632">
+        <v>1868.6333333333334</v>
+      </c>
+      <c r="R632">
+        <v>1494.9066666666668</v>
+      </c>
+      <c r="S632">
+        <v>1.016</v>
+      </c>
+      <c r="T632">
+        <v>373.72666666666669</v>
+      </c>
+      <c r="U632">
+        <v>0</v>
+      </c>
+      <c r="V632">
+        <v>0.78584170249201735</v>
+      </c>
+      <c r="W632">
+        <v>0</v>
+      </c>
+      <c r="X632">
+        <v>0.8</v>
+      </c>
+      <c r="Y632">
+        <v>3.5725540873411972</v>
+      </c>
+      <c r="Z632">
+        <v>7.985109882270307</v>
+      </c>
+      <c r="AA632">
+        <v>0</v>
+      </c>
+      <c r="AB632">
+        <v>4.2865552364473141</v>
+      </c>
+      <c r="AC632">
+        <v>0</v>
+      </c>
+      <c r="AD632">
+        <v>3.8699954156891301</v>
+      </c>
+      <c r="AE632">
+        <v>0.4</v>
+      </c>
+      <c r="AF632">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AG632">
+        <v>0.8</v>
+      </c>
+      <c r="AH632">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AI632">
+        <v>0.25</v>
+      </c>
+      <c r="AJ632">
+        <v>0</v>
+      </c>
+      <c r="AK632">
+        <v>0</v>
+      </c>
+      <c r="AL632">
+        <v>62794</v>
+      </c>
+      <c r="AM632">
+        <v>2.4</v>
+      </c>
+      <c r="AN632">
+        <v>2.9</v>
+      </c>
+      <c r="AO632">
+        <v>0</v>
+      </c>
+      <c r="AP632">
+        <v>0</v>
+      </c>
+      <c r="AQ632">
+        <v>1</v>
+      </c>
+      <c r="AR632">
+        <v>25</v>
+      </c>
+      <c r="AS632" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT632">
+        <v>1</v>
+      </c>
+      <c r="AU632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>308</v>
+      </c>
+      <c r="B633" t="s">
+        <v>46</v>
+      </c>
+      <c r="C633" t="s">
+        <v>309</v>
+      </c>
+      <c r="D633">
+        <v>2019</v>
+      </c>
+      <c r="E633">
+        <v>2936.9</v>
+      </c>
+      <c r="F633">
+        <v>0</v>
+      </c>
+      <c r="G633">
+        <v>3737.2666666666669</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
+        <v>0</v>
+      </c>
+      <c r="J633">
+        <v>377.02499999999998</v>
+      </c>
+      <c r="K633">
+        <v>587.38</v>
+      </c>
+      <c r="L633">
+        <v>1868.6333333333334</v>
+      </c>
+      <c r="M633">
+        <v>5.8266999999999998</v>
+      </c>
+      <c r="N633">
+        <v>278.45</v>
+      </c>
+      <c r="O633">
+        <v>74.745333333333335</v>
+      </c>
+      <c r="P633">
+        <v>-41.95</v>
+      </c>
+      <c r="Q633">
+        <v>1868.6333333333334</v>
+      </c>
+      <c r="R633">
+        <v>1494.9066666666668</v>
+      </c>
+      <c r="S633">
+        <v>1.016</v>
+      </c>
+      <c r="T633">
+        <v>373.72666666666669</v>
+      </c>
+      <c r="U633">
+        <v>0</v>
+      </c>
+      <c r="V633">
+        <v>0.78584170249201735</v>
+      </c>
+      <c r="W633">
+        <v>0</v>
+      </c>
+      <c r="X633">
+        <v>0.8</v>
+      </c>
+      <c r="Y633">
+        <v>3.5725540873411972</v>
+      </c>
+      <c r="Z633">
+        <v>7.985109882270307</v>
+      </c>
+      <c r="AA633">
+        <v>0</v>
+      </c>
+      <c r="AB633">
+        <v>4.2865552364473141</v>
+      </c>
+      <c r="AC633">
+        <v>0</v>
+      </c>
+      <c r="AD633">
+        <v>3.9650067413743568</v>
+      </c>
+      <c r="AE633">
+        <v>0.4</v>
+      </c>
+      <c r="AF633">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AG633">
+        <v>0.8</v>
+      </c>
+      <c r="AH633">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AI633">
+        <v>0.25</v>
+      </c>
+      <c r="AJ633">
+        <v>0</v>
+      </c>
+      <c r="AK633">
+        <v>0</v>
+      </c>
+      <c r="AL633">
+        <v>63414</v>
+      </c>
+      <c r="AM633">
+        <v>1.8</v>
+      </c>
+      <c r="AN633">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO633">
+        <v>0</v>
+      </c>
+      <c r="AP633">
+        <v>0</v>
+      </c>
+      <c r="AQ633">
+        <v>2</v>
+      </c>
+      <c r="AR633">
+        <v>24</v>
+      </c>
+      <c r="AS633" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT633">
+        <v>1</v>
+      </c>
+      <c r="AU633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>308</v>
+      </c>
+      <c r="B634" t="s">
+        <v>46</v>
+      </c>
+      <c r="C634" t="s">
+        <v>309</v>
+      </c>
+      <c r="D634">
+        <v>2020</v>
+      </c>
+      <c r="E634">
+        <v>2936.9</v>
+      </c>
+      <c r="F634">
+        <v>181</v>
+      </c>
+      <c r="G634">
+        <v>3737.2666666666669</v>
+      </c>
+      <c r="H634">
+        <v>927.83808521126741</v>
+      </c>
+      <c r="I634">
+        <v>0</v>
+      </c>
+      <c r="J634">
+        <v>390.4</v>
+      </c>
+      <c r="K634">
+        <v>587.38</v>
+      </c>
+      <c r="L634">
+        <v>1868.6333333333334</v>
+      </c>
+      <c r="M634">
+        <v>5.8266999999999998</v>
+      </c>
+      <c r="N634">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="O634">
+        <v>53.3</v>
+      </c>
+      <c r="P634">
+        <v>-34.1</v>
+      </c>
+      <c r="Q634">
+        <v>1868.6333333333334</v>
+      </c>
+      <c r="R634">
+        <v>1494.9066666666668</v>
+      </c>
+      <c r="S634">
+        <v>1.016</v>
+      </c>
+      <c r="T634">
+        <v>373.72666666666669</v>
+      </c>
+      <c r="U634">
+        <v>0</v>
+      </c>
+      <c r="V634">
+        <v>0.78584170249201735</v>
+      </c>
+      <c r="W634">
+        <v>6.1629609452143415E-2</v>
+      </c>
+      <c r="X634">
+        <v>0.8</v>
+      </c>
+      <c r="Y634">
+        <v>3.5725540873411972</v>
+      </c>
+      <c r="Z634">
+        <v>7.985109882270307</v>
+      </c>
+      <c r="AA634">
+        <v>9.6862234431581012E-2</v>
+      </c>
+      <c r="AB634">
+        <v>5.5722326454033775</v>
+      </c>
+      <c r="AC634">
+        <v>4.8431117215790506E-2</v>
+      </c>
+      <c r="AD634">
+        <v>3.8291666666666671</v>
+      </c>
+      <c r="AE634">
+        <v>0.4</v>
+      </c>
+      <c r="AF634">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AG634">
+        <v>0.8</v>
+      </c>
+      <c r="AH634">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AI634">
+        <v>0.25</v>
+      </c>
+      <c r="AJ634">
+        <v>0.31592430290825951</v>
+      </c>
+      <c r="AK634">
+        <v>0.49653298411206087</v>
+      </c>
+      <c r="AL634">
+        <v>63228</v>
+      </c>
+      <c r="AM634">
+        <v>1.2</v>
+      </c>
+      <c r="AN634">
+        <v>-3.5</v>
+      </c>
+      <c r="AO634">
+        <v>0</v>
+      </c>
+      <c r="AP634">
+        <v>0</v>
+      </c>
+      <c r="AQ634">
+        <v>3</v>
+      </c>
+      <c r="AR634">
+        <v>23</v>
+      </c>
+      <c r="AS634" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT634">
+        <v>1</v>
+      </c>
+      <c r="AU634">
+        <v>2.3766344395780417</v>
+      </c>
+    </row>
+    <row r="635" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>308</v>
+      </c>
+      <c r="B635" t="s">
+        <v>46</v>
+      </c>
+      <c r="C635" t="s">
+        <v>309</v>
+      </c>
+      <c r="D635">
+        <v>2021</v>
+      </c>
+      <c r="E635">
+        <v>3408</v>
+      </c>
+      <c r="F635">
+        <v>435.4</v>
+      </c>
+      <c r="G635">
+        <v>4486.6000000000004</v>
+      </c>
+      <c r="H635">
+        <v>4528.6087429975432</v>
+      </c>
+      <c r="I635">
+        <v>1132100</v>
+      </c>
+      <c r="J635">
+        <v>682.2</v>
+      </c>
+      <c r="K635">
+        <v>465.9</v>
+      </c>
+      <c r="L635">
+        <v>1835.1</v>
+      </c>
+      <c r="M635">
+        <v>5.8266999999999998</v>
+      </c>
+      <c r="N635">
+        <v>529.20000000000005</v>
+      </c>
+      <c r="O635">
+        <v>45.5</v>
+      </c>
+      <c r="P635">
+        <v>-53.9</v>
+      </c>
+      <c r="Q635">
+        <v>2651.5</v>
+      </c>
+      <c r="R635">
+        <v>944.5</v>
+      </c>
+      <c r="S635">
+        <v>1.2182999999999999</v>
+      </c>
+      <c r="T635">
+        <v>478.6</v>
+      </c>
+      <c r="U635">
+        <v>0</v>
+      </c>
+      <c r="V635">
+        <v>0.75959523915659954</v>
+      </c>
+      <c r="W635">
+        <v>0.1277582159624413</v>
+      </c>
+      <c r="X635">
+        <v>0.51468584818266039</v>
+      </c>
+      <c r="Y635">
+        <v>3.6519173520076942</v>
+      </c>
+      <c r="Z635">
+        <v>8.1338808879492071</v>
+      </c>
+      <c r="AA635">
+        <v>0.23726227453544765</v>
+      </c>
+      <c r="AB635">
+        <v>12.815384615384616</v>
+      </c>
+      <c r="AC635">
+        <v>9.7044532608211109E-2</v>
+      </c>
+      <c r="AD635">
+        <v>1.3844913515098212</v>
+      </c>
+      <c r="AE635">
+        <v>0.21051575803503766</v>
+      </c>
+      <c r="AF635">
+        <v>0.33979709310692185</v>
+      </c>
+      <c r="AG635">
+        <v>0.51468584818266039</v>
+      </c>
+      <c r="AH635">
+        <v>0.33979709310692185</v>
+      </c>
+      <c r="AI635">
+        <v>0.50672313393329804</v>
+      </c>
+      <c r="AJ635">
+        <v>1.3288171194241618</v>
+      </c>
+      <c r="AK635">
+        <v>2.467772188435259</v>
+      </c>
+      <c r="AL635">
+        <v>69287</v>
+      </c>
+      <c r="AM635">
+        <v>4.7</v>
+      </c>
+      <c r="AN635">
+        <v>5.9</v>
+      </c>
+      <c r="AO635">
+        <v>0</v>
+      </c>
+      <c r="AP635">
+        <v>0</v>
+      </c>
+      <c r="AQ635">
+        <v>4</v>
+      </c>
+      <c r="AR635">
+        <v>22</v>
+      </c>
+      <c r="AS635" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT635">
+        <v>1</v>
+      </c>
+      <c r="AU635">
+        <v>6.6382420741681951</v>
+      </c>
+    </row>
+    <row r="636" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>308</v>
+      </c>
+      <c r="B636" t="s">
+        <v>46</v>
+      </c>
+      <c r="C636" t="s">
+        <v>309</v>
+      </c>
+      <c r="D636">
+        <v>2022</v>
+      </c>
+      <c r="E636">
+        <v>2035</v>
+      </c>
+      <c r="F636">
+        <v>401.1</v>
+      </c>
+      <c r="G636">
+        <v>4391.6000000000004</v>
+      </c>
+      <c r="H636">
+        <v>165.35762346625796</v>
+      </c>
+      <c r="I636">
+        <v>4135000</v>
+      </c>
+      <c r="J636">
+        <v>95.5</v>
+      </c>
+      <c r="K636">
+        <v>33.9</v>
+      </c>
+      <c r="L636">
+        <v>1904</v>
+      </c>
+      <c r="M636">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="N636">
+        <v>37.9</v>
+      </c>
+      <c r="O636">
+        <v>6.9</v>
+      </c>
+      <c r="P636">
+        <v>-37.1</v>
+      </c>
+      <c r="Q636">
+        <v>2487.6</v>
+      </c>
+      <c r="R636">
+        <v>460.9</v>
+      </c>
+      <c r="S636">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="T636">
+        <v>427</v>
+      </c>
+      <c r="U636">
+        <v>0</v>
+      </c>
+      <c r="V636">
+        <v>0.46338464341014662</v>
+      </c>
+      <c r="W636">
+        <v>0.19710073710073711</v>
+      </c>
+      <c r="X636">
+        <v>0.24206932773109244</v>
+      </c>
+      <c r="Y636">
+        <v>3.642622776409274</v>
+      </c>
+      <c r="Z636">
+        <v>7.6182510978766951</v>
+      </c>
+      <c r="AA636">
+        <v>0.21066176470588235</v>
+      </c>
+      <c r="AB636">
+        <v>10.869565217391305</v>
+      </c>
+      <c r="AC636">
+        <v>9.133345477730212E-2</v>
+      </c>
+      <c r="AD636">
+        <v>4.826178010471204</v>
+      </c>
+      <c r="AE636">
+        <v>0.10495035977775752</v>
+      </c>
+      <c r="AF636">
+        <v>0.19489196160514186</v>
+      </c>
+      <c r="AG636">
+        <v>0.24206932773109244</v>
+      </c>
+      <c r="AH636">
+        <v>0.19489196160514186</v>
+      </c>
+      <c r="AI636">
+        <v>0.92644825341722725</v>
+      </c>
+      <c r="AJ636">
+        <v>8.1256817428136591E-2</v>
+      </c>
+      <c r="AK636">
+        <v>8.6847491316311962E-2</v>
+      </c>
+      <c r="AL636">
+        <v>76399</v>
+      </c>
+      <c r="AM636">
+        <v>8</v>
+      </c>
+      <c r="AN636">
+        <v>2.1</v>
+      </c>
+      <c r="AO636">
+        <v>0</v>
+      </c>
+      <c r="AP636">
+        <v>0</v>
+      </c>
+      <c r="AQ636">
+        <v>5</v>
+      </c>
+      <c r="AR636">
+        <v>21</v>
+      </c>
+      <c r="AS636" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT636">
+        <v>1</v>
+      </c>
+      <c r="AU636">
+        <v>1.7314934394372561</v>
+      </c>
+    </row>
+    <row r="637" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>308</v>
+      </c>
+      <c r="B637" t="s">
+        <v>46</v>
+      </c>
+      <c r="C637" t="s">
+        <v>309</v>
+      </c>
+      <c r="D637">
+        <v>2023</v>
+      </c>
+      <c r="E637">
+        <v>2086.4</v>
+      </c>
+      <c r="F637">
+        <v>255.9</v>
+      </c>
+      <c r="G637">
+        <v>2333.6</v>
+      </c>
+      <c r="H637">
+        <v>6712.1040000000003</v>
+      </c>
+      <c r="I637">
+        <v>56670467</v>
+      </c>
+      <c r="J637">
+        <v>340</v>
+      </c>
+      <c r="K637">
+        <v>-14</v>
+      </c>
+      <c r="L637">
+        <v>1360.3</v>
+      </c>
+      <c r="M637">
+        <v>10.7218</v>
+      </c>
+      <c r="N637">
+        <v>283.8</v>
+      </c>
+      <c r="O637">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P637">
+        <v>-42.7</v>
+      </c>
+      <c r="Q637">
+        <v>973.3</v>
+      </c>
+      <c r="R637">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="S637">
+        <v>1.3615999999999999</v>
+      </c>
+      <c r="T637">
+        <v>329.6</v>
+      </c>
+      <c r="U637">
+        <v>0</v>
+      </c>
+      <c r="V637">
+        <v>0.8940692492286596</v>
+      </c>
+      <c r="W637">
+        <v>0.12265145705521473</v>
+      </c>
+      <c r="X637">
+        <v>0.23200764537234436</v>
+      </c>
+      <c r="Y637">
+        <v>3.3680264161136764</v>
+      </c>
+      <c r="Z637">
+        <v>7.6431953717323342</v>
+      </c>
+      <c r="AA637">
+        <v>0.18812026758803208</v>
+      </c>
+      <c r="AB637">
+        <v>18.551136363636363</v>
+      </c>
+      <c r="AC637">
+        <v>0.10965889612615702</v>
+      </c>
+      <c r="AD637">
+        <v>0.92823529411764716</v>
+      </c>
+      <c r="AE637">
+        <v>0.13524168666438122</v>
+      </c>
+      <c r="AF637">
+        <v>0.18831672534160751</v>
+      </c>
+      <c r="AG637">
+        <v>0.23200764537234436</v>
+      </c>
+      <c r="AH637">
+        <v>0.18831672534160751</v>
+      </c>
+      <c r="AI637">
+        <v>1.044359949302915</v>
+      </c>
+      <c r="AJ637">
+        <v>3.2170743865030675</v>
+      </c>
+      <c r="AK637">
+        <v>4.9342821436447846</v>
+      </c>
+      <c r="AL637">
+        <v>80851</v>
+      </c>
+      <c r="AM637">
+        <v>3.7</v>
+      </c>
+      <c r="AN637">
+        <v>2.6</v>
+      </c>
+      <c r="AO637">
+        <v>0</v>
+      </c>
+      <c r="AP637">
+        <v>0</v>
+      </c>
+      <c r="AQ637">
+        <v>6</v>
+      </c>
+      <c r="AR637">
+        <v>20</v>
+      </c>
+      <c r="AS637" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT637">
+        <v>1</v>
+      </c>
+      <c r="AU637">
+        <v>19.741482352941176</v>
+      </c>
+    </row>
+    <row r="638" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>310</v>
+      </c>
+      <c r="B638" t="s">
+        <v>46</v>
+      </c>
+      <c r="C638" t="s">
+        <v>311</v>
+      </c>
+      <c r="D638">
+        <v>2018</v>
+      </c>
+      <c r="E638">
+        <v>372.29300000000001</v>
+      </c>
+      <c r="F638">
+        <v>-369.67200000000003</v>
+      </c>
+      <c r="G638">
+        <v>751.81100000000004</v>
+      </c>
+      <c r="H638">
+        <v>2643.8863000000001</v>
+      </c>
+      <c r="I638">
+        <v>66455051</v>
+      </c>
+      <c r="J638">
+        <v>-362.07</v>
+      </c>
+      <c r="K638">
+        <v>-442.66899999999998</v>
+      </c>
+      <c r="L638">
+        <v>428.17399999999998</v>
+      </c>
+      <c r="M638">
+        <v>-124.43689999999999</v>
+      </c>
+      <c r="N638">
+        <v>-374.17200000000003</v>
+      </c>
+      <c r="O638">
+        <v>-5.15</v>
+      </c>
+      <c r="P638">
+        <v>-12.954000000000001</v>
+      </c>
+      <c r="Q638">
+        <v>323.637</v>
+      </c>
+      <c r="R638">
+        <v>0</v>
+      </c>
+      <c r="S638">
+        <v>1.8105</v>
+      </c>
+      <c r="T638">
+        <v>43.247</v>
+      </c>
+      <c r="U638">
+        <v>327.84199999999998</v>
+      </c>
+      <c r="V638">
+        <v>0.49519493596129877</v>
+      </c>
+      <c r="W638">
+        <v>-0.99295984614268873</v>
+      </c>
+      <c r="X638">
+        <v>0</v>
+      </c>
+      <c r="Y638">
+        <v>2.8761086757331435</v>
+      </c>
+      <c r="Z638">
+        <v>5.9196811786605465</v>
+      </c>
+      <c r="AA638">
+        <v>-0.86336863051002644</v>
+      </c>
+      <c r="AB638">
+        <v>70.139417475728152</v>
+      </c>
+      <c r="AC638">
+        <v>-0.49170868742276985</v>
+      </c>
+      <c r="AD638">
+        <v>0</v>
+      </c>
+      <c r="AE638">
+        <v>0</v>
+      </c>
+      <c r="AF638">
+        <v>0</v>
+      </c>
+      <c r="AG638">
+        <v>0</v>
+      </c>
+      <c r="AH638">
+        <v>0</v>
+      </c>
+      <c r="AI638">
+        <v>0</v>
+      </c>
+      <c r="AJ638">
+        <v>7.1016277501860099</v>
+      </c>
+      <c r="AK638">
+        <v>6.1747941257526149</v>
+      </c>
+      <c r="AL638">
+        <v>62794</v>
+      </c>
+      <c r="AM638">
+        <v>2.4</v>
+      </c>
+      <c r="AN638">
+        <v>2.9</v>
+      </c>
+      <c r="AO638">
+        <v>0</v>
+      </c>
+      <c r="AP638">
+        <v>1</v>
+      </c>
+      <c r="AQ638">
+        <v>10</v>
+      </c>
+      <c r="AR638">
+        <v>30</v>
+      </c>
+      <c r="AS638" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT638">
+        <v>1</v>
+      </c>
+      <c r="AU638">
+        <v>-7.3021412986439094</v>
+      </c>
+    </row>
+    <row r="639" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>310</v>
+      </c>
+      <c r="B639" t="s">
+        <v>46</v>
+      </c>
+      <c r="C639" t="s">
+        <v>311</v>
+      </c>
+      <c r="D639">
+        <v>2019</v>
+      </c>
+      <c r="E639">
+        <v>479.94099999999997</v>
+      </c>
+      <c r="F639">
+        <v>-192.649</v>
+      </c>
+      <c r="G639">
+        <v>2196.643</v>
+      </c>
+      <c r="H639">
+        <v>3584.4766</v>
+      </c>
+      <c r="I639">
+        <v>144131970</v>
+      </c>
+      <c r="J639">
+        <v>-176.33600000000001</v>
+      </c>
+      <c r="K639">
+        <v>-537.21799999999996</v>
+      </c>
+      <c r="L639">
+        <v>1562.069</v>
+      </c>
+      <c r="M639">
+        <v>-19.873000000000001</v>
+      </c>
+      <c r="N639">
+        <v>-193.76400000000001</v>
+      </c>
+      <c r="O639">
+        <v>-9.0109999999999992</v>
+      </c>
+      <c r="P639">
+        <v>-10.086</v>
+      </c>
+      <c r="Q639">
+        <v>634.57399999999996</v>
+      </c>
+      <c r="R639">
+        <v>0</v>
+      </c>
+      <c r="S639">
+        <v>1.4635</v>
+      </c>
+      <c r="T639">
+        <v>158.672</v>
+      </c>
+      <c r="U639">
+        <v>322.005</v>
+      </c>
+      <c r="V639">
+        <v>0.21848839342578652</v>
+      </c>
+      <c r="W639">
+        <v>-0.40140142225815256</v>
+      </c>
+      <c r="X639">
+        <v>0</v>
+      </c>
+      <c r="Y639">
+        <v>3.3417594808038888</v>
+      </c>
+      <c r="Z639">
+        <v>6.1736631796803971</v>
+      </c>
+      <c r="AA639">
+        <v>-0.12332937917595189</v>
+      </c>
+      <c r="AB639">
+        <v>20.383753190544891</v>
+      </c>
+      <c r="AC639">
+        <v>-8.77015518680095E-2</v>
+      </c>
+      <c r="AD639">
+        <v>0</v>
+      </c>
+      <c r="AE639">
+        <v>0</v>
+      </c>
+      <c r="AF639">
+        <v>0</v>
+      </c>
+      <c r="AG639">
+        <v>0</v>
+      </c>
+      <c r="AH639">
+        <v>0</v>
+      </c>
+      <c r="AI639">
+        <v>0</v>
+      </c>
+      <c r="AJ639">
+        <v>7.4685775959961749</v>
+      </c>
+      <c r="AK639">
+        <v>2.2946979934945255</v>
+      </c>
+      <c r="AL639">
+        <v>63414</v>
+      </c>
+      <c r="AM639">
+        <v>1.8</v>
+      </c>
+      <c r="AN639">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO639">
+        <v>0</v>
+      </c>
+      <c r="AP639">
+        <v>1</v>
+      </c>
+      <c r="AQ639">
+        <v>11</v>
+      </c>
+      <c r="AR639">
+        <v>29</v>
+      </c>
+      <c r="AS639" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT639">
+        <v>1</v>
+      </c>
+      <c r="AU639">
+        <v>-20.327537201705834</v>
+      </c>
+    </row>
+    <row r="640" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>310</v>
+      </c>
+      <c r="B640" t="s">
+        <v>46</v>
+      </c>
+      <c r="C640" t="s">
+        <v>311</v>
+      </c>
+      <c r="D640">
+        <v>2020</v>
+      </c>
+      <c r="E640">
+        <v>794.19100000000003</v>
+      </c>
+      <c r="F640">
+        <v>-336.58199999999999</v>
+      </c>
+      <c r="G640">
+        <v>2299.79</v>
+      </c>
+      <c r="H640">
+        <v>2954.7889</v>
+      </c>
+      <c r="I640">
+        <v>299390910</v>
+      </c>
+      <c r="J640">
+        <v>-217.68799999999999</v>
+      </c>
+      <c r="K640">
+        <v>-271.68700000000001</v>
+      </c>
+      <c r="L640">
+        <v>1438.3689999999999</v>
+      </c>
+      <c r="M640">
+        <v>-21.535499999999999</v>
+      </c>
+      <c r="N640">
+        <v>-339.75400000000002</v>
+      </c>
+      <c r="O640">
+        <v>-11.686999999999999</v>
+      </c>
+      <c r="P640">
+        <v>-7.2030000000000003</v>
+      </c>
+      <c r="Q640">
+        <v>861.42100000000005</v>
+      </c>
+      <c r="R640">
+        <v>211.505</v>
+      </c>
+      <c r="S640">
+        <v>1.0535000000000001</v>
+      </c>
+      <c r="T640">
+        <v>107.63800000000001</v>
+      </c>
+      <c r="U640">
+        <v>253.36099999999999</v>
+      </c>
+      <c r="V640">
+        <v>0.345331965092465</v>
+      </c>
+      <c r="W640">
+        <v>-0.42380485298876464</v>
+      </c>
+      <c r="X640">
+        <v>0.14704502113157333</v>
+      </c>
+      <c r="Y640">
+        <v>3.3616881812328034</v>
+      </c>
+      <c r="Z640">
+        <v>6.6773239864747955</v>
+      </c>
+      <c r="AA640">
+        <v>-0.23400254037733018</v>
+      </c>
+      <c r="AB640">
+        <v>28.454778814066916</v>
+      </c>
+      <c r="AC640">
+        <v>-0.14635336269833332</v>
+      </c>
+      <c r="AD640">
+        <v>-0.97159696446290111</v>
+      </c>
+      <c r="AE640">
+        <v>9.1967092647589566E-2</v>
+      </c>
+      <c r="AF640">
+        <v>0.12819463789356036</v>
+      </c>
+      <c r="AG640">
+        <v>0.14704502113157333</v>
+      </c>
+      <c r="AH640">
+        <v>0.12819463789356036</v>
+      </c>
+      <c r="AI640">
+        <v>1.7068107136947119</v>
+      </c>
+      <c r="AJ640">
+        <v>3.7205016173691212</v>
+      </c>
+      <c r="AK640">
+        <v>2.054263474810706</v>
+      </c>
+      <c r="AL640">
+        <v>63228</v>
+      </c>
+      <c r="AM640">
+        <v>1.2</v>
+      </c>
+      <c r="AN640">
+        <v>-3.5</v>
+      </c>
+      <c r="AO640">
+        <v>0</v>
+      </c>
+      <c r="AP640">
+        <v>1</v>
+      </c>
+      <c r="AQ640">
+        <v>12</v>
+      </c>
+      <c r="AR640">
+        <v>28</v>
+      </c>
+      <c r="AS640" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT640">
+        <v>1</v>
+      </c>
+      <c r="AU640">
+        <v>-13.573503821983758</v>
+      </c>
+    </row>
+    <row r="641" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>310</v>
+      </c>
+      <c r="B641" t="s">
+        <v>46</v>
+      </c>
+      <c r="C641" t="s">
+        <v>311</v>
+      </c>
+      <c r="D641">
+        <v>2021</v>
+      </c>
+      <c r="E641">
+        <v>869.25800000000004</v>
+      </c>
+      <c r="F641">
+        <v>-162.73400000000001</v>
+      </c>
+      <c r="G641">
+        <v>2508.6010000000001</v>
+      </c>
+      <c r="H641">
+        <v>4775.7650000000003</v>
+      </c>
+      <c r="I641">
+        <v>275932932</v>
+      </c>
+      <c r="J641">
+        <v>-35.854999999999997</v>
+      </c>
+      <c r="K641">
+        <v>-93.715000000000003</v>
+      </c>
+      <c r="L641">
+        <v>1127.93</v>
+      </c>
+      <c r="M641">
+        <v>-9.4541000000000004</v>
+      </c>
+      <c r="N641">
+        <v>-156.26499999999999</v>
+      </c>
+      <c r="O641">
+        <v>-3.9940000000000002</v>
+      </c>
+      <c r="P641">
+        <v>-10.053000000000001</v>
+      </c>
+      <c r="Q641">
+        <v>1380.671</v>
+      </c>
+      <c r="R641">
+        <v>675.95899999999995</v>
+      </c>
+      <c r="S641">
+        <v>1.3761000000000001</v>
+      </c>
+      <c r="T641">
+        <v>298.67200000000003</v>
+      </c>
+      <c r="U641">
+        <v>297.721</v>
+      </c>
+      <c r="V641">
+        <v>0.34651106333769299</v>
+      </c>
+      <c r="W641">
+        <v>-0.18721024137827894</v>
+      </c>
+      <c r="X641">
+        <v>0.59929162270708281</v>
+      </c>
+      <c r="Y641">
+        <v>3.3994315910562762</v>
+      </c>
+      <c r="Z641">
+        <v>6.7676399741818294</v>
+      </c>
+      <c r="AA641">
+        <v>-0.14427668383676293</v>
+      </c>
+      <c r="AB641">
+        <v>36.607911867801697</v>
+      </c>
+      <c r="AC641">
+        <v>-6.4870419807693605E-2</v>
+      </c>
+      <c r="AD641">
+        <v>-18.852572862920095</v>
+      </c>
+      <c r="AE641">
+        <v>0.2694565616453154</v>
+      </c>
+      <c r="AF641">
+        <v>0.37472316755631857</v>
+      </c>
+      <c r="AG641">
+        <v>0.59929162270708281</v>
+      </c>
+      <c r="AH641">
+        <v>0.37472316755631857</v>
+      </c>
+      <c r="AI641">
+        <v>0.88229167745381021</v>
+      </c>
+      <c r="AJ641">
+        <v>5.4940708052154825</v>
+      </c>
+      <c r="AK641">
+        <v>4.2340969741030028</v>
+      </c>
+      <c r="AL641">
+        <v>69287</v>
+      </c>
+      <c r="AM641">
+        <v>4.7</v>
+      </c>
+      <c r="AN641">
+        <v>5.9</v>
+      </c>
+      <c r="AO641">
+        <v>0</v>
+      </c>
+      <c r="AP641">
+        <v>1</v>
+      </c>
+      <c r="AQ641">
+        <v>13</v>
+      </c>
+      <c r="AR641">
+        <v>27</v>
+      </c>
+      <c r="AS641" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT641">
+        <v>1</v>
+      </c>
+      <c r="AU641">
+        <v>-133.19662529633248</v>
+      </c>
+    </row>
+    <row r="642" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>310</v>
+      </c>
+      <c r="B642" t="s">
+        <v>46</v>
+      </c>
+      <c r="C642" t="s">
+        <v>311</v>
+      </c>
+      <c r="D642">
+        <v>2022</v>
+      </c>
+      <c r="E642">
+        <v>869.25800000000004</v>
+      </c>
+      <c r="F642">
+        <v>0</v>
+      </c>
+      <c r="G642">
+        <v>1939.2112500000003</v>
+      </c>
+      <c r="H642">
+        <v>3489.7291999999998</v>
+      </c>
+      <c r="I642">
+        <v>275932932</v>
+      </c>
+      <c r="J642">
+        <v>-197.98724999999999</v>
+      </c>
+      <c r="K642">
+        <v>173.85160000000002</v>
+      </c>
+      <c r="L642">
+        <v>969.60562500000015</v>
+      </c>
+      <c r="M642">
+        <v>-43.824874999999999</v>
+      </c>
+      <c r="N642">
+        <v>-265.98874999999998</v>
+      </c>
+      <c r="O642">
+        <v>38.784225000000013</v>
+      </c>
+      <c r="P642">
+        <v>-10.074</v>
+      </c>
+      <c r="Q642">
+        <v>969.60562500000015</v>
+      </c>
+      <c r="R642">
+        <v>775.68450000000018</v>
+      </c>
+      <c r="S642">
+        <v>1.4259000000000002</v>
+      </c>
+      <c r="T642">
+        <v>193.92112500000005</v>
+      </c>
+      <c r="U642">
+        <v>0</v>
+      </c>
+      <c r="V642">
+        <v>0.44825338136832688</v>
+      </c>
+      <c r="W642">
+        <v>0</v>
+      </c>
+      <c r="X642">
+        <v>0.8</v>
+      </c>
+      <c r="Y642">
+        <v>3.2876251219781216</v>
+      </c>
+      <c r="Z642">
+        <v>6.7676399741818294</v>
+      </c>
+      <c r="AA642">
+        <v>0</v>
+      </c>
+      <c r="AB642">
+        <v>-6.5984237147964127</v>
+      </c>
+      <c r="AC642">
+        <v>0</v>
+      </c>
+      <c r="AD642">
+        <v>-3.9178507706935686</v>
+      </c>
+      <c r="AE642">
+        <v>0.4</v>
+      </c>
+      <c r="AF642">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AG642">
+        <v>0.8</v>
+      </c>
+      <c r="AH642">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AI642">
+        <v>0.25</v>
+      </c>
+      <c r="AJ642">
+        <v>4.0146069406321248</v>
+      </c>
+      <c r="AK642">
+        <v>3.5991222720062077</v>
+      </c>
+      <c r="AL642">
+        <v>76399</v>
+      </c>
+      <c r="AM642">
+        <v>8</v>
+      </c>
+      <c r="AN642">
+        <v>2.1</v>
+      </c>
+      <c r="AO642">
+        <v>0</v>
+      </c>
+      <c r="AP642">
+        <v>1</v>
+      </c>
+      <c r="AQ642">
+        <v>14</v>
+      </c>
+      <c r="AR642">
+        <v>26</v>
+      </c>
+      <c r="AS642" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT642">
+        <v>1</v>
+      </c>
+      <c r="AU642">
+        <v>-17.626029958999887</v>
+      </c>
+    </row>
+    <row r="643" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>310</v>
+      </c>
+      <c r="B643" t="s">
+        <v>46</v>
+      </c>
+      <c r="C643" t="s">
+        <v>311</v>
+      </c>
+      <c r="D643">
+        <v>2023</v>
+      </c>
+      <c r="E643">
+        <v>869.25800000000004</v>
+      </c>
+      <c r="F643">
+        <v>0</v>
+      </c>
+      <c r="G643">
+        <v>1939.2112500000003</v>
+      </c>
+      <c r="H643">
+        <v>3489.7291999999998</v>
+      </c>
+      <c r="I643">
+        <v>275932932</v>
+      </c>
+      <c r="J643">
+        <v>-156.96656250000001</v>
+      </c>
+      <c r="K643">
+        <v>173.85160000000002</v>
+      </c>
+      <c r="L643">
+        <v>969.60562500000015</v>
+      </c>
+      <c r="M643">
+        <v>-43.824874999999999</v>
+      </c>
+      <c r="N643">
+        <v>-265.98874999999998</v>
+      </c>
+      <c r="O643">
+        <v>38.784225000000013</v>
+      </c>
+      <c r="P643">
+        <v>-10.074</v>
+      </c>
+      <c r="Q643">
+        <v>969.60562500000015</v>
+      </c>
+      <c r="R643">
+        <v>775.68450000000018</v>
+      </c>
+      <c r="S643">
+        <v>1.4259000000000002</v>
+      </c>
+      <c r="T643">
+        <v>193.92112500000005</v>
+      </c>
+      <c r="U643">
+        <v>0</v>
+      </c>
+      <c r="V643">
+        <v>0</v>
+      </c>
+      <c r="W643">
+        <v>0</v>
+      </c>
+      <c r="X643">
+        <v>0</v>
+      </c>
+      <c r="Y643">
+        <v>0</v>
+      </c>
+      <c r="Z643">
+        <v>0</v>
+      </c>
+      <c r="AA643">
+        <v>0</v>
+      </c>
+      <c r="AB643">
+        <v>0</v>
+      </c>
+      <c r="AC643">
+        <v>0</v>
+      </c>
+      <c r="AD643">
+        <v>-4.9417180808810803</v>
+      </c>
+      <c r="AE643">
+        <v>0.4</v>
+      </c>
+      <c r="AF643">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AG643">
+        <v>0.8</v>
+      </c>
+      <c r="AH643">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AI643">
+        <v>0.25</v>
+      </c>
+      <c r="AJ643">
+        <v>4.0146069406321248</v>
+      </c>
+      <c r="AK643">
+        <v>3.5991222720062077</v>
+      </c>
+      <c r="AL643">
+        <v>80851</v>
+      </c>
+      <c r="AM643">
+        <v>3.7</v>
+      </c>
+      <c r="AN643">
+        <v>2.6</v>
+      </c>
+      <c r="AO643">
+        <v>0</v>
+      </c>
+      <c r="AP643">
+        <v>1</v>
+      </c>
+      <c r="AQ643">
+        <v>15</v>
+      </c>
+      <c r="AR643">
+        <v>25</v>
+      </c>
+      <c r="AS643" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT643">
+        <v>1</v>
+      </c>
+      <c r="AU643">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="AO1:AT643" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Companies_transpose_edited_2_final.xlsx
+++ b/Companies_transpose_edited_2_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56052D-8F53-405A-950E-9CC2D6815959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A51F7-1FA7-431B-AA81-190FE8060D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1050,11 +1050,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1359,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN88" sqref="AN88"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AZ15" sqref="AZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -94727,7 +94726,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726E759D-8BB9-4D74-938C-309E662FF30B}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="P1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="A1:K14"/>
@@ -94735,8 +94734,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
-    <col min="2" max="15" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="4"/>
   </cols>
   <sheetData/>
